--- a/BackTest/2020-01-14 BackTest AOA.xlsx
+++ b/BackTest/2020-01-14 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M190"/>
+  <dimension ref="A1:M191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
         <v>1.919</v>
       </c>
       <c r="C2" t="n">
-        <v>1.919</v>
+        <v>1.901</v>
       </c>
       <c r="D2" t="n">
         <v>1.919</v>
@@ -445,10 +445,10 @@
         <v>1.901</v>
       </c>
       <c r="F2" t="n">
-        <v>2846699.76</v>
+        <v>1393109</v>
       </c>
       <c r="G2" t="n">
-        <v>1.914100000000001</v>
+        <v>1.913916666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.901</v>
+        <v>1.919</v>
       </c>
       <c r="C3" t="n">
-        <v>1.901</v>
+        <v>1.919</v>
       </c>
       <c r="D3" t="n">
-        <v>1.901</v>
+        <v>1.919</v>
       </c>
       <c r="E3" t="n">
         <v>1.901</v>
       </c>
       <c r="F3" t="n">
-        <v>167512.6522</v>
+        <v>2846699.76</v>
       </c>
       <c r="G3" t="n">
-        <v>1.913983333333334</v>
+        <v>1.914100000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="C4" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="D4" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="E4" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="F4" t="n">
-        <v>236644.0909</v>
+        <v>167512.6522</v>
       </c>
       <c r="G4" t="n">
-        <v>1.913583333333334</v>
+        <v>1.913983333333334</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>1.9</v>
       </c>
       <c r="C5" t="n">
-        <v>1.898</v>
+        <v>1.9</v>
       </c>
       <c r="D5" t="n">
         <v>1.9</v>
       </c>
       <c r="E5" t="n">
-        <v>1.898</v>
+        <v>1.9</v>
       </c>
       <c r="F5" t="n">
-        <v>329325.2233</v>
+        <v>236644.0909</v>
       </c>
       <c r="G5" t="n">
-        <v>1.91315</v>
+        <v>1.913583333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.898</v>
+        <v>1.9</v>
       </c>
       <c r="C6" t="n">
         <v>1.898</v>
       </c>
       <c r="D6" t="n">
-        <v>1.898</v>
+        <v>1.9</v>
       </c>
       <c r="E6" t="n">
         <v>1.898</v>
       </c>
       <c r="F6" t="n">
-        <v>300</v>
+        <v>329325.2233</v>
       </c>
       <c r="G6" t="n">
-        <v>1.912983333333333</v>
+        <v>1.91315</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.901</v>
+        <v>1.898</v>
       </c>
       <c r="C7" t="n">
-        <v>1.901</v>
+        <v>1.898</v>
       </c>
       <c r="D7" t="n">
-        <v>1.901</v>
+        <v>1.898</v>
       </c>
       <c r="E7" t="n">
-        <v>1.901</v>
+        <v>1.898</v>
       </c>
       <c r="F7" t="n">
-        <v>95425</v>
+        <v>300</v>
       </c>
       <c r="G7" t="n">
-        <v>1.912866666666667</v>
+        <v>1.912983333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>1.901</v>
       </c>
       <c r="C8" t="n">
-        <v>1.919</v>
+        <v>1.901</v>
       </c>
       <c r="D8" t="n">
-        <v>1.919</v>
+        <v>1.901</v>
       </c>
       <c r="E8" t="n">
-        <v>1.899</v>
+        <v>1.901</v>
       </c>
       <c r="F8" t="n">
-        <v>2367840.0668</v>
+        <v>95425</v>
       </c>
       <c r="G8" t="n">
-        <v>1.91305</v>
+        <v>1.912866666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="C9" t="n">
-        <v>1.92</v>
+        <v>1.919</v>
       </c>
       <c r="D9" t="n">
-        <v>1.92</v>
+        <v>1.919</v>
       </c>
       <c r="E9" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="F9" t="n">
-        <v>492279.2169</v>
+        <v>2367840.0668</v>
       </c>
       <c r="G9" t="n">
-        <v>1.912983333333333</v>
+        <v>1.91305</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.919</v>
+        <v>1.9</v>
       </c>
       <c r="C10" t="n">
-        <v>1.902</v>
+        <v>1.92</v>
       </c>
       <c r="D10" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="E10" t="n">
-        <v>1.902</v>
+        <v>1.9</v>
       </c>
       <c r="F10" t="n">
-        <v>1478717.88</v>
+        <v>492279.2169</v>
       </c>
       <c r="G10" t="n">
-        <v>1.912616666666666</v>
+        <v>1.912983333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>1.919</v>
       </c>
       <c r="C11" t="n">
-        <v>1.919</v>
+        <v>1.902</v>
       </c>
       <c r="D11" t="n">
         <v>1.919</v>
@@ -760,10 +760,10 @@
         <v>1.902</v>
       </c>
       <c r="F11" t="n">
-        <v>3914450.88</v>
+        <v>1478717.88</v>
       </c>
       <c r="G11" t="n">
-        <v>1.9128</v>
+        <v>1.912616666666666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>1.919</v>
       </c>
       <c r="C12" t="n">
-        <v>1.902</v>
+        <v>1.919</v>
       </c>
       <c r="D12" t="n">
         <v>1.919</v>
@@ -795,10 +795,10 @@
         <v>1.902</v>
       </c>
       <c r="F12" t="n">
-        <v>3000417.88</v>
+        <v>3914450.88</v>
       </c>
       <c r="G12" t="n">
-        <v>1.912433333333333</v>
+        <v>1.9128</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>1.919</v>
       </c>
       <c r="C13" t="n">
-        <v>1.919</v>
+        <v>1.902</v>
       </c>
       <c r="D13" t="n">
         <v>1.919</v>
       </c>
       <c r="E13" t="n">
-        <v>1.919</v>
+        <v>1.902</v>
       </c>
       <c r="F13" t="n">
-        <v>222715</v>
+        <v>3000417.88</v>
       </c>
       <c r="G13" t="n">
-        <v>1.91235</v>
+        <v>1.912433333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.903</v>
+        <v>1.919</v>
       </c>
       <c r="C14" t="n">
-        <v>1.903</v>
+        <v>1.919</v>
       </c>
       <c r="D14" t="n">
         <v>1.919</v>
       </c>
       <c r="E14" t="n">
-        <v>1.903</v>
+        <v>1.919</v>
       </c>
       <c r="F14" t="n">
-        <v>3339866.88</v>
+        <v>222715</v>
       </c>
       <c r="G14" t="n">
-        <v>1.912266666666666</v>
+        <v>1.91235</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,10 +888,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.919</v>
+        <v>1.903</v>
       </c>
       <c r="C15" t="n">
-        <v>1.904</v>
+        <v>1.903</v>
       </c>
       <c r="D15" t="n">
         <v>1.919</v>
@@ -900,10 +900,10 @@
         <v>1.903</v>
       </c>
       <c r="F15" t="n">
-        <v>2940886.88</v>
+        <v>3339866.88</v>
       </c>
       <c r="G15" t="n">
-        <v>1.912199999999999</v>
+        <v>1.912266666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.905</v>
+        <v>1.919</v>
       </c>
       <c r="C16" t="n">
-        <v>1.902</v>
+        <v>1.904</v>
       </c>
       <c r="D16" t="n">
-        <v>1.905</v>
+        <v>1.919</v>
       </c>
       <c r="E16" t="n">
-        <v>1.902</v>
+        <v>1.903</v>
       </c>
       <c r="F16" t="n">
-        <v>1863958.7134</v>
+        <v>2940886.88</v>
       </c>
       <c r="G16" t="n">
-        <v>1.911833333333333</v>
+        <v>1.912199999999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.902</v>
+        <v>1.905</v>
       </c>
       <c r="C17" t="n">
         <v>1.902</v>
       </c>
       <c r="D17" t="n">
-        <v>1.902</v>
+        <v>1.905</v>
       </c>
       <c r="E17" t="n">
         <v>1.902</v>
       </c>
       <c r="F17" t="n">
-        <v>339.4091</v>
+        <v>1863958.7134</v>
       </c>
       <c r="G17" t="n">
-        <v>1.911733333333333</v>
+        <v>1.911833333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.901</v>
+        <v>1.902</v>
       </c>
       <c r="C18" t="n">
         <v>1.902</v>
@@ -1002,13 +1002,13 @@
         <v>1.902</v>
       </c>
       <c r="E18" t="n">
-        <v>1.901</v>
+        <v>1.902</v>
       </c>
       <c r="F18" t="n">
-        <v>59834.6772</v>
+        <v>339.4091</v>
       </c>
       <c r="G18" t="n">
-        <v>1.911366666666666</v>
+        <v>1.911733333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="C19" t="n">
-        <v>1.915</v>
+        <v>1.902</v>
       </c>
       <c r="D19" t="n">
-        <v>1.915</v>
+        <v>1.902</v>
       </c>
       <c r="E19" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="F19" t="n">
-        <v>2712.4834</v>
+        <v>59834.6772</v>
       </c>
       <c r="G19" t="n">
-        <v>1.911216666666666</v>
+        <v>1.911366666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>1.9</v>
       </c>
       <c r="C20" t="n">
-        <v>1.898</v>
+        <v>1.915</v>
       </c>
       <c r="D20" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="E20" t="n">
         <v>1.9</v>
       </c>
-      <c r="E20" t="n">
-        <v>1.898</v>
-      </c>
       <c r="F20" t="n">
-        <v>1043073.2502</v>
+        <v>2712.4834</v>
       </c>
       <c r="G20" t="n">
-        <v>1.911049999999999</v>
+        <v>1.911216666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.897</v>
+        <v>1.9</v>
       </c>
       <c r="C21" t="n">
-        <v>1.897</v>
+        <v>1.898</v>
       </c>
       <c r="D21" t="n">
-        <v>1.897</v>
+        <v>1.9</v>
       </c>
       <c r="E21" t="n">
-        <v>1.897</v>
+        <v>1.898</v>
       </c>
       <c r="F21" t="n">
-        <v>265</v>
+        <v>1043073.2502</v>
       </c>
       <c r="G21" t="n">
-        <v>1.910599999999999</v>
+        <v>1.911049999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>1.897</v>
       </c>
       <c r="C22" t="n">
-        <v>1.894</v>
+        <v>1.897</v>
       </c>
       <c r="D22" t="n">
-        <v>1.898</v>
+        <v>1.897</v>
       </c>
       <c r="E22" t="n">
-        <v>1.894</v>
+        <v>1.897</v>
       </c>
       <c r="F22" t="n">
-        <v>64478.0578</v>
+        <v>265</v>
       </c>
       <c r="G22" t="n">
-        <v>1.910366666666666</v>
+        <v>1.910599999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="C23" t="n">
         <v>1.894</v>
       </c>
-      <c r="C23" t="n">
-        <v>1.892</v>
-      </c>
       <c r="D23" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="E23" t="n">
         <v>1.894</v>
       </c>
-      <c r="E23" t="n">
-        <v>1.892</v>
-      </c>
       <c r="F23" t="n">
-        <v>26692.1859</v>
+        <v>64478.0578</v>
       </c>
       <c r="G23" t="n">
-        <v>1.910099999999999</v>
+        <v>1.910366666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>1.894</v>
       </c>
       <c r="C24" t="n">
-        <v>1.894</v>
+        <v>1.892</v>
       </c>
       <c r="D24" t="n">
         <v>1.894</v>
       </c>
       <c r="E24" t="n">
-        <v>1.894</v>
+        <v>1.892</v>
       </c>
       <c r="F24" t="n">
-        <v>203015.1284</v>
+        <v>26692.1859</v>
       </c>
       <c r="G24" t="n">
-        <v>1.909583333333333</v>
+        <v>1.910099999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.893</v>
+        <v>1.894</v>
       </c>
       <c r="C25" t="n">
-        <v>1.89</v>
+        <v>1.894</v>
       </c>
       <c r="D25" t="n">
-        <v>1.893</v>
+        <v>1.894</v>
       </c>
       <c r="E25" t="n">
-        <v>1.89</v>
+        <v>1.894</v>
       </c>
       <c r="F25" t="n">
-        <v>219580.2903</v>
+        <v>203015.1284</v>
       </c>
       <c r="G25" t="n">
-        <v>1.908999999999999</v>
+        <v>1.909583333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.89</v>
+        <v>1.893</v>
       </c>
       <c r="C26" t="n">
         <v>1.89</v>
       </c>
       <c r="D26" t="n">
-        <v>1.89</v>
+        <v>1.893</v>
       </c>
       <c r="E26" t="n">
         <v>1.89</v>
       </c>
       <c r="F26" t="n">
-        <v>38266.9435</v>
+        <v>219580.2903</v>
       </c>
       <c r="G26" t="n">
-        <v>1.908349999999999</v>
+        <v>1.908999999999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.894</v>
+        <v>1.89</v>
       </c>
       <c r="C27" t="n">
-        <v>1.894</v>
+        <v>1.89</v>
       </c>
       <c r="D27" t="n">
-        <v>1.894</v>
+        <v>1.89</v>
       </c>
       <c r="E27" t="n">
-        <v>1.894</v>
+        <v>1.89</v>
       </c>
       <c r="F27" t="n">
-        <v>148148.8227</v>
+        <v>38266.9435</v>
       </c>
       <c r="G27" t="n">
-        <v>1.908083333333333</v>
+        <v>1.908349999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.89</v>
+        <v>1.894</v>
       </c>
       <c r="C28" t="n">
-        <v>1.882</v>
+        <v>1.894</v>
       </c>
       <c r="D28" t="n">
-        <v>1.89</v>
+        <v>1.894</v>
       </c>
       <c r="E28" t="n">
-        <v>1.882</v>
+        <v>1.894</v>
       </c>
       <c r="F28" t="n">
-        <v>46938.7022</v>
+        <v>148148.8227</v>
       </c>
       <c r="G28" t="n">
-        <v>1.9073</v>
+        <v>1.908083333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.883</v>
+        <v>1.89</v>
       </c>
       <c r="C29" t="n">
-        <v>1.855</v>
+        <v>1.882</v>
       </c>
       <c r="D29" t="n">
-        <v>1.883</v>
+        <v>1.89</v>
       </c>
       <c r="E29" t="n">
-        <v>1.855</v>
+        <v>1.882</v>
       </c>
       <c r="F29" t="n">
-        <v>7162580.5994</v>
+        <v>46938.7022</v>
       </c>
       <c r="G29" t="n">
-        <v>1.906083333333333</v>
+        <v>1.9073</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.854</v>
+        <v>1.883</v>
       </c>
       <c r="C30" t="n">
-        <v>1.852</v>
+        <v>1.855</v>
       </c>
       <c r="D30" t="n">
-        <v>1.854</v>
+        <v>1.883</v>
       </c>
       <c r="E30" t="n">
-        <v>1.852</v>
+        <v>1.855</v>
       </c>
       <c r="F30" t="n">
-        <v>32408.3203</v>
+        <v>7162580.5994</v>
       </c>
       <c r="G30" t="n">
-        <v>1.9051</v>
+        <v>1.906083333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.857</v>
+        <v>1.854</v>
       </c>
       <c r="C31" t="n">
-        <v>1.857</v>
+        <v>1.852</v>
       </c>
       <c r="D31" t="n">
-        <v>1.857</v>
+        <v>1.854</v>
       </c>
       <c r="E31" t="n">
-        <v>1.857</v>
+        <v>1.852</v>
       </c>
       <c r="F31" t="n">
-        <v>26925.1481</v>
+        <v>32408.3203</v>
       </c>
       <c r="G31" t="n">
-        <v>1.9042</v>
+        <v>1.9051</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>1.857</v>
       </c>
       <c r="C32" t="n">
-        <v>1.886</v>
+        <v>1.857</v>
       </c>
       <c r="D32" t="n">
-        <v>1.887</v>
+        <v>1.857</v>
       </c>
       <c r="E32" t="n">
         <v>1.857</v>
       </c>
       <c r="F32" t="n">
-        <v>873057.2502</v>
+        <v>26925.1481</v>
       </c>
       <c r="G32" t="n">
-        <v>1.903783333333333</v>
+        <v>1.9042</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.886</v>
+        <v>1.857</v>
       </c>
       <c r="C33" t="n">
         <v>1.886</v>
       </c>
       <c r="D33" t="n">
-        <v>1.886</v>
+        <v>1.887</v>
       </c>
       <c r="E33" t="n">
-        <v>1.886</v>
+        <v>1.857</v>
       </c>
       <c r="F33" t="n">
-        <v>40340.1819</v>
+        <v>873057.2502</v>
       </c>
       <c r="G33" t="n">
-        <v>1.903383333333333</v>
+        <v>1.903783333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.87</v>
+        <v>1.886</v>
       </c>
       <c r="C34" t="n">
-        <v>1.87</v>
+        <v>1.886</v>
       </c>
       <c r="D34" t="n">
-        <v>1.87</v>
+        <v>1.886</v>
       </c>
       <c r="E34" t="n">
-        <v>1.87</v>
+        <v>1.886</v>
       </c>
       <c r="F34" t="n">
-        <v>810.375</v>
+        <v>40340.1819</v>
       </c>
       <c r="G34" t="n">
-        <v>1.902716666666666</v>
+        <v>1.903383333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.887</v>
+        <v>1.87</v>
       </c>
       <c r="C35" t="n">
-        <v>1.887</v>
+        <v>1.87</v>
       </c>
       <c r="D35" t="n">
-        <v>1.887</v>
+        <v>1.87</v>
       </c>
       <c r="E35" t="n">
-        <v>1.887</v>
+        <v>1.87</v>
       </c>
       <c r="F35" t="n">
-        <v>263798.3366</v>
+        <v>810.375</v>
       </c>
       <c r="G35" t="n">
-        <v>1.902333333333333</v>
+        <v>1.902716666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>1.887</v>
       </c>
       <c r="F36" t="n">
-        <v>374640.8593</v>
+        <v>263798.3366</v>
       </c>
       <c r="G36" t="n">
-        <v>1.90195</v>
+        <v>1.902333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.87</v>
+        <v>1.887</v>
       </c>
       <c r="C37" t="n">
-        <v>1.87</v>
+        <v>1.887</v>
       </c>
       <c r="D37" t="n">
-        <v>1.87</v>
+        <v>1.887</v>
       </c>
       <c r="E37" t="n">
-        <v>1.87</v>
+        <v>1.887</v>
       </c>
       <c r="F37" t="n">
-        <v>190146.3702</v>
+        <v>374640.8593</v>
       </c>
       <c r="G37" t="n">
-        <v>1.901283333333333</v>
+        <v>1.90195</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.889</v>
+        <v>1.87</v>
       </c>
       <c r="C38" t="n">
-        <v>1.872</v>
+        <v>1.87</v>
       </c>
       <c r="D38" t="n">
-        <v>1.889</v>
+        <v>1.87</v>
       </c>
       <c r="E38" t="n">
-        <v>1.872</v>
+        <v>1.87</v>
       </c>
       <c r="F38" t="n">
-        <v>818732</v>
+        <v>190146.3702</v>
       </c>
       <c r="G38" t="n">
-        <v>1.9005</v>
+        <v>1.901283333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.875</v>
+        <v>1.889</v>
       </c>
       <c r="C39" t="n">
-        <v>1.875</v>
+        <v>1.872</v>
       </c>
       <c r="D39" t="n">
-        <v>1.875</v>
+        <v>1.889</v>
       </c>
       <c r="E39" t="n">
-        <v>1.875</v>
+        <v>1.872</v>
       </c>
       <c r="F39" t="n">
-        <v>18719.0254</v>
+        <v>818732</v>
       </c>
       <c r="G39" t="n">
-        <v>1.899916666666667</v>
+        <v>1.9005</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>1.875</v>
       </c>
       <c r="F40" t="n">
-        <v>1329.8701</v>
+        <v>18719.0254</v>
       </c>
       <c r="G40" t="n">
-        <v>1.899333333333334</v>
+        <v>1.899916666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.883</v>
+        <v>1.875</v>
       </c>
       <c r="C41" t="n">
-        <v>1.883</v>
+        <v>1.875</v>
       </c>
       <c r="D41" t="n">
-        <v>1.883</v>
+        <v>1.875</v>
       </c>
       <c r="E41" t="n">
-        <v>1.883</v>
+        <v>1.875</v>
       </c>
       <c r="F41" t="n">
-        <v>94083.4133</v>
+        <v>1329.8701</v>
       </c>
       <c r="G41" t="n">
-        <v>1.898733333333333</v>
+        <v>1.899333333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>1.883</v>
       </c>
       <c r="F42" t="n">
-        <v>42337.2712</v>
+        <v>94083.4133</v>
       </c>
       <c r="G42" t="n">
-        <v>1.898283333333333</v>
+        <v>1.898733333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.882</v>
+        <v>1.883</v>
       </c>
       <c r="C43" t="n">
-        <v>1.882</v>
+        <v>1.883</v>
       </c>
       <c r="D43" t="n">
-        <v>1.882</v>
+        <v>1.883</v>
       </c>
       <c r="E43" t="n">
-        <v>1.876</v>
+        <v>1.883</v>
       </c>
       <c r="F43" t="n">
-        <v>78971.4684</v>
+        <v>42337.2712</v>
       </c>
       <c r="G43" t="n">
-        <v>1.89785</v>
+        <v>1.898283333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,35 +1903,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.879</v>
+        <v>1.882</v>
       </c>
       <c r="C44" t="n">
-        <v>1.879</v>
+        <v>1.882</v>
       </c>
       <c r="D44" t="n">
-        <v>1.879</v>
+        <v>1.882</v>
       </c>
       <c r="E44" t="n">
-        <v>1.879</v>
+        <v>1.876</v>
       </c>
       <c r="F44" t="n">
-        <v>56402.4465</v>
+        <v>78971.4684</v>
       </c>
       <c r="G44" t="n">
-        <v>1.897366666666667</v>
+        <v>1.89785</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1.882</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
@@ -1942,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.883</v>
+        <v>1.879</v>
       </c>
       <c r="C45" t="n">
-        <v>1.883</v>
+        <v>1.879</v>
       </c>
       <c r="D45" t="n">
-        <v>1.883</v>
+        <v>1.879</v>
       </c>
       <c r="E45" t="n">
-        <v>1.883</v>
+        <v>1.879</v>
       </c>
       <c r="F45" t="n">
-        <v>400000</v>
+        <v>56402.4465</v>
       </c>
       <c r="G45" t="n">
-        <v>1.896983333333333</v>
+        <v>1.897366666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1966,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1995,10 +1985,10 @@
         <v>1.883</v>
       </c>
       <c r="F46" t="n">
-        <v>6108.8701</v>
+        <v>400000</v>
       </c>
       <c r="G46" t="n">
-        <v>1.896616666666667</v>
+        <v>1.896983333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2007,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2024,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.877</v>
+        <v>1.883</v>
       </c>
       <c r="C47" t="n">
-        <v>1.877</v>
+        <v>1.883</v>
       </c>
       <c r="D47" t="n">
-        <v>1.877</v>
+        <v>1.883</v>
       </c>
       <c r="E47" t="n">
-        <v>1.877</v>
+        <v>1.883</v>
       </c>
       <c r="F47" t="n">
-        <v>129177.2646</v>
+        <v>6108.8701</v>
       </c>
       <c r="G47" t="n">
-        <v>1.896183333333333</v>
+        <v>1.896616666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2059,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.885</v>
+        <v>1.877</v>
       </c>
       <c r="C48" t="n">
-        <v>1.885</v>
+        <v>1.877</v>
       </c>
       <c r="D48" t="n">
-        <v>1.885</v>
+        <v>1.877</v>
       </c>
       <c r="E48" t="n">
-        <v>1.885</v>
+        <v>1.877</v>
       </c>
       <c r="F48" t="n">
-        <v>266</v>
+        <v>129177.2646</v>
       </c>
       <c r="G48" t="n">
-        <v>1.895883333333333</v>
+        <v>1.896183333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2094,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.876</v>
+        <v>1.885</v>
       </c>
       <c r="C49" t="n">
-        <v>1.871</v>
+        <v>1.885</v>
       </c>
       <c r="D49" t="n">
-        <v>1.876</v>
+        <v>1.885</v>
       </c>
       <c r="E49" t="n">
-        <v>1.871</v>
+        <v>1.885</v>
       </c>
       <c r="F49" t="n">
-        <v>152000</v>
+        <v>266</v>
       </c>
       <c r="G49" t="n">
-        <v>1.89535</v>
+        <v>1.895883333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2129,35 +2113,31 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.885</v>
+        <v>1.876</v>
       </c>
       <c r="C50" t="n">
-        <v>1.885</v>
+        <v>1.871</v>
       </c>
       <c r="D50" t="n">
-        <v>1.885</v>
+        <v>1.876</v>
       </c>
       <c r="E50" t="n">
-        <v>1.885</v>
+        <v>1.871</v>
       </c>
       <c r="F50" t="n">
-        <v>266</v>
+        <v>152000</v>
       </c>
       <c r="G50" t="n">
-        <v>1.894783333333333</v>
+        <v>1.89535</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1.871</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
@@ -2168,40 +2148,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.872</v>
+        <v>1.885</v>
       </c>
       <c r="C51" t="n">
-        <v>1.872</v>
+        <v>1.885</v>
       </c>
       <c r="D51" t="n">
-        <v>1.872</v>
+        <v>1.885</v>
       </c>
       <c r="E51" t="n">
-        <v>1.872</v>
+        <v>1.885</v>
       </c>
       <c r="F51" t="n">
-        <v>156266.8524</v>
+        <v>266</v>
       </c>
       <c r="G51" t="n">
-        <v>1.894</v>
+        <v>1.894783333333333</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2211,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.885</v>
+        <v>1.872</v>
       </c>
       <c r="C52" t="n">
-        <v>1.885</v>
+        <v>1.872</v>
       </c>
       <c r="D52" t="n">
-        <v>1.885</v>
+        <v>1.872</v>
       </c>
       <c r="E52" t="n">
-        <v>1.885</v>
+        <v>1.872</v>
       </c>
       <c r="F52" t="n">
-        <v>266</v>
+        <v>156266.8524</v>
       </c>
       <c r="G52" t="n">
-        <v>1.89345</v>
+        <v>1.894</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2235,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2264,10 +2230,10 @@
         <v>1.885</v>
       </c>
       <c r="F53" t="n">
-        <v>56249.70778779841</v>
+        <v>266</v>
       </c>
       <c r="G53" t="n">
-        <v>1.8929</v>
+        <v>1.89345</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2299,10 +2265,10 @@
         <v>1.885</v>
       </c>
       <c r="F54" t="n">
-        <v>12429.6103</v>
+        <v>56249.70778779841</v>
       </c>
       <c r="G54" t="n">
-        <v>1.892333333333333</v>
+        <v>1.8929</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2334,10 +2300,10 @@
         <v>1.885</v>
       </c>
       <c r="F55" t="n">
-        <v>159731.0988122016</v>
+        <v>12429.6103</v>
       </c>
       <c r="G55" t="n">
-        <v>1.8917</v>
+        <v>1.892333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2357,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.89</v>
+        <v>1.885</v>
       </c>
       <c r="C56" t="n">
-        <v>1.89</v>
+        <v>1.885</v>
       </c>
       <c r="D56" t="n">
-        <v>1.89</v>
+        <v>1.885</v>
       </c>
       <c r="E56" t="n">
-        <v>1.89</v>
+        <v>1.885</v>
       </c>
       <c r="F56" t="n">
-        <v>70534.1841</v>
+        <v>159731.0988122016</v>
       </c>
       <c r="G56" t="n">
-        <v>1.891216666666667</v>
+        <v>1.8917</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2392,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.913</v>
+        <v>1.89</v>
       </c>
       <c r="C57" t="n">
-        <v>1.913</v>
+        <v>1.89</v>
       </c>
       <c r="D57" t="n">
-        <v>1.913</v>
+        <v>1.89</v>
       </c>
       <c r="E57" t="n">
-        <v>1.891</v>
+        <v>1.89</v>
       </c>
       <c r="F57" t="n">
-        <v>3119073.88</v>
+        <v>70534.1841</v>
       </c>
       <c r="G57" t="n">
-        <v>1.891133333333333</v>
+        <v>1.891216666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2430,7 +2396,7 @@
         <v>1.913</v>
       </c>
       <c r="C58" t="n">
-        <v>1.891</v>
+        <v>1.913</v>
       </c>
       <c r="D58" t="n">
         <v>1.913</v>
@@ -2439,10 +2405,10 @@
         <v>1.891</v>
       </c>
       <c r="F58" t="n">
-        <v>3582513.0706</v>
+        <v>3119073.88</v>
       </c>
       <c r="G58" t="n">
-        <v>1.890883333333333</v>
+        <v>1.891133333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2462,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.912</v>
+        <v>1.913</v>
       </c>
       <c r="C59" t="n">
         <v>1.891</v>
       </c>
       <c r="D59" t="n">
-        <v>1.912</v>
+        <v>1.913</v>
       </c>
       <c r="E59" t="n">
         <v>1.891</v>
       </c>
       <c r="F59" t="n">
-        <v>1553280.88</v>
+        <v>3582513.0706</v>
       </c>
       <c r="G59" t="n">
-        <v>1.890666666666667</v>
+        <v>1.890883333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2497,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.911</v>
+        <v>1.912</v>
       </c>
       <c r="C60" t="n">
-        <v>1.911</v>
+        <v>1.891</v>
       </c>
       <c r="D60" t="n">
-        <v>1.911</v>
+        <v>1.912</v>
       </c>
       <c r="E60" t="n">
-        <v>1.911</v>
+        <v>1.891</v>
       </c>
       <c r="F60" t="n">
-        <v>1070.7175</v>
+        <v>1553280.88</v>
       </c>
       <c r="G60" t="n">
-        <v>1.890816666666667</v>
+        <v>1.890666666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2532,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.91</v>
+        <v>1.911</v>
       </c>
       <c r="C61" t="n">
-        <v>1.91</v>
+        <v>1.911</v>
       </c>
       <c r="D61" t="n">
-        <v>1.91</v>
+        <v>1.911</v>
       </c>
       <c r="E61" t="n">
-        <v>1.91</v>
+        <v>1.911</v>
       </c>
       <c r="F61" t="n">
-        <v>1000</v>
+        <v>1070.7175</v>
       </c>
       <c r="G61" t="n">
-        <v>1.890966666666667</v>
+        <v>1.890816666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2567,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.909</v>
+        <v>1.91</v>
       </c>
       <c r="C62" t="n">
-        <v>1.883</v>
+        <v>1.91</v>
       </c>
       <c r="D62" t="n">
-        <v>1.909</v>
+        <v>1.91</v>
       </c>
       <c r="E62" t="n">
-        <v>1.883</v>
+        <v>1.91</v>
       </c>
       <c r="F62" t="n">
-        <v>634894</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="n">
-        <v>1.890366666666667</v>
+        <v>1.890966666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2608,16 +2574,16 @@
         <v>1.883</v>
       </c>
       <c r="D63" t="n">
-        <v>1.914</v>
+        <v>1.909</v>
       </c>
       <c r="E63" t="n">
         <v>1.883</v>
       </c>
       <c r="F63" t="n">
-        <v>3379146.88</v>
+        <v>634894</v>
       </c>
       <c r="G63" t="n">
-        <v>1.890066666666667</v>
+        <v>1.890366666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2637,10 +2603,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.912</v>
+        <v>1.909</v>
       </c>
       <c r="C64" t="n">
-        <v>1.899</v>
+        <v>1.883</v>
       </c>
       <c r="D64" t="n">
         <v>1.914</v>
@@ -2649,10 +2615,10 @@
         <v>1.883</v>
       </c>
       <c r="F64" t="n">
-        <v>1875871.3004</v>
+        <v>3379146.88</v>
       </c>
       <c r="G64" t="n">
-        <v>1.89005</v>
+        <v>1.890066666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2672,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.883</v>
+        <v>1.912</v>
       </c>
       <c r="C65" t="n">
-        <v>1.883</v>
+        <v>1.899</v>
       </c>
       <c r="D65" t="n">
-        <v>1.899</v>
+        <v>1.914</v>
       </c>
       <c r="E65" t="n">
         <v>1.883</v>
       </c>
       <c r="F65" t="n">
-        <v>1255872</v>
+        <v>1875871.3004</v>
       </c>
       <c r="G65" t="n">
-        <v>1.8898</v>
+        <v>1.89005</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2707,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.9</v>
+        <v>1.883</v>
       </c>
       <c r="C66" t="n">
-        <v>1.9</v>
+        <v>1.883</v>
       </c>
       <c r="D66" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="E66" t="n">
-        <v>1.9</v>
+        <v>1.883</v>
       </c>
       <c r="F66" t="n">
-        <v>21208.085</v>
+        <v>1255872</v>
       </c>
       <c r="G66" t="n">
-        <v>1.889833333333333</v>
+        <v>1.8898</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2742,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.879</v>
+        <v>1.9</v>
       </c>
       <c r="C67" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="D67" t="n">
-        <v>1.879</v>
+        <v>1.9</v>
       </c>
       <c r="E67" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="F67" t="n">
-        <v>2533403.0774</v>
+        <v>21208.085</v>
       </c>
       <c r="G67" t="n">
-        <v>1.888816666666667</v>
+        <v>1.889833333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2777,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.888</v>
+        <v>1.879</v>
       </c>
       <c r="C68" t="n">
-        <v>1.888</v>
+        <v>1.84</v>
       </c>
       <c r="D68" t="n">
-        <v>1.888</v>
+        <v>1.879</v>
       </c>
       <c r="E68" t="n">
-        <v>1.852</v>
+        <v>1.84</v>
       </c>
       <c r="F68" t="n">
-        <v>921721</v>
+        <v>2533403.0774</v>
       </c>
       <c r="G68" t="n">
-        <v>1.8883</v>
+        <v>1.888816666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2812,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.852</v>
+        <v>1.888</v>
       </c>
       <c r="C69" t="n">
-        <v>1.852</v>
+        <v>1.888</v>
       </c>
       <c r="D69" t="n">
-        <v>1.887</v>
+        <v>1.888</v>
       </c>
       <c r="E69" t="n">
         <v>1.852</v>
       </c>
       <c r="F69" t="n">
-        <v>3052887.41</v>
+        <v>921721</v>
       </c>
       <c r="G69" t="n">
-        <v>1.887166666666667</v>
+        <v>1.8883</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2847,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.883</v>
+        <v>1.852</v>
       </c>
       <c r="C70" t="n">
-        <v>1.861</v>
+        <v>1.852</v>
       </c>
       <c r="D70" t="n">
-        <v>1.888</v>
+        <v>1.887</v>
       </c>
       <c r="E70" t="n">
         <v>1.852</v>
       </c>
       <c r="F70" t="n">
-        <v>2892441.88</v>
+        <v>3052887.41</v>
       </c>
       <c r="G70" t="n">
-        <v>1.886483333333334</v>
+        <v>1.887166666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2882,7 +2848,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.879</v>
+        <v>1.883</v>
       </c>
       <c r="C71" t="n">
         <v>1.861</v>
@@ -2891,13 +2857,13 @@
         <v>1.888</v>
       </c>
       <c r="E71" t="n">
-        <v>1.861</v>
+        <v>1.852</v>
       </c>
       <c r="F71" t="n">
-        <v>2861643.8</v>
+        <v>2892441.88</v>
       </c>
       <c r="G71" t="n">
-        <v>1.885516666666667</v>
+        <v>1.886483333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2917,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.888</v>
+        <v>1.879</v>
       </c>
       <c r="C72" t="n">
-        <v>1.888</v>
+        <v>1.861</v>
       </c>
       <c r="D72" t="n">
         <v>1.888</v>
       </c>
       <c r="E72" t="n">
-        <v>1.855</v>
+        <v>1.861</v>
       </c>
       <c r="F72" t="n">
-        <v>2815866.76</v>
+        <v>2861643.8</v>
       </c>
       <c r="G72" t="n">
-        <v>1.885283333333334</v>
+        <v>1.885516666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2955,19 +2921,19 @@
         <v>1.888</v>
       </c>
       <c r="C73" t="n">
-        <v>1.871</v>
+        <v>1.888</v>
       </c>
       <c r="D73" t="n">
         <v>1.888</v>
       </c>
       <c r="E73" t="n">
-        <v>1.871</v>
+        <v>1.855</v>
       </c>
       <c r="F73" t="n">
-        <v>1523982</v>
+        <v>2815866.76</v>
       </c>
       <c r="G73" t="n">
-        <v>1.884483333333334</v>
+        <v>1.885283333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2990,19 +2956,19 @@
         <v>1.888</v>
       </c>
       <c r="C74" t="n">
-        <v>1.889</v>
+        <v>1.871</v>
       </c>
       <c r="D74" t="n">
-        <v>1.889</v>
+        <v>1.888</v>
       </c>
       <c r="E74" t="n">
-        <v>1.888</v>
+        <v>1.871</v>
       </c>
       <c r="F74" t="n">
-        <v>123000</v>
+        <v>1523982</v>
       </c>
       <c r="G74" t="n">
-        <v>1.88425</v>
+        <v>1.884483333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3022,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="C75" t="n">
         <v>1.889</v>
       </c>
-      <c r="C75" t="n">
-        <v>1.881</v>
-      </c>
       <c r="D75" t="n">
-        <v>1.913</v>
+        <v>1.889</v>
       </c>
       <c r="E75" t="n">
-        <v>1.873</v>
+        <v>1.888</v>
       </c>
       <c r="F75" t="n">
-        <v>2859476.88</v>
+        <v>123000</v>
       </c>
       <c r="G75" t="n">
-        <v>1.883866666666667</v>
+        <v>1.88425</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3057,7 +3023,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.913</v>
+        <v>1.889</v>
       </c>
       <c r="C76" t="n">
         <v>1.881</v>
@@ -3066,13 +3032,13 @@
         <v>1.913</v>
       </c>
       <c r="E76" t="n">
-        <v>1.881</v>
+        <v>1.873</v>
       </c>
       <c r="F76" t="n">
-        <v>2927002.76</v>
+        <v>2859476.88</v>
       </c>
       <c r="G76" t="n">
-        <v>1.883516666666667</v>
+        <v>1.883866666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3104,10 +3070,10 @@
         <v>1.881</v>
       </c>
       <c r="F77" t="n">
-        <v>2067273.88</v>
+        <v>2927002.76</v>
       </c>
       <c r="G77" t="n">
-        <v>1.883166666666667</v>
+        <v>1.883516666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3130,7 +3096,7 @@
         <v>1.913</v>
       </c>
       <c r="C78" t="n">
-        <v>1.913</v>
+        <v>1.881</v>
       </c>
       <c r="D78" t="n">
         <v>1.913</v>
@@ -3139,10 +3105,10 @@
         <v>1.881</v>
       </c>
       <c r="F78" t="n">
-        <v>1679438.88</v>
+        <v>2067273.88</v>
       </c>
       <c r="G78" t="n">
-        <v>1.88335</v>
+        <v>1.883166666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3162,10 +3128,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.891</v>
+        <v>1.913</v>
       </c>
       <c r="C79" t="n">
-        <v>1.881</v>
+        <v>1.913</v>
       </c>
       <c r="D79" t="n">
         <v>1.913</v>
@@ -3174,10 +3140,10 @@
         <v>1.881</v>
       </c>
       <c r="F79" t="n">
-        <v>4216035</v>
+        <v>1679438.88</v>
       </c>
       <c r="G79" t="n">
-        <v>1.882783333333333</v>
+        <v>1.88335</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3197,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.912</v>
+        <v>1.891</v>
       </c>
       <c r="C80" t="n">
-        <v>1.891</v>
+        <v>1.881</v>
       </c>
       <c r="D80" t="n">
-        <v>1.912</v>
+        <v>1.913</v>
       </c>
       <c r="E80" t="n">
-        <v>1.891</v>
+        <v>1.881</v>
       </c>
       <c r="F80" t="n">
-        <v>1365739.88</v>
+        <v>4216035</v>
       </c>
       <c r="G80" t="n">
-        <v>1.882666666666667</v>
+        <v>1.882783333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3232,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.89</v>
+        <v>1.912</v>
       </c>
       <c r="C81" t="n">
-        <v>1.89</v>
+        <v>1.891</v>
       </c>
       <c r="D81" t="n">
-        <v>1.89</v>
+        <v>1.912</v>
       </c>
       <c r="E81" t="n">
-        <v>1.89</v>
+        <v>1.891</v>
       </c>
       <c r="F81" t="n">
-        <v>21832.8574</v>
+        <v>1365739.88</v>
       </c>
       <c r="G81" t="n">
-        <v>1.88255</v>
+        <v>1.882666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3267,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.876</v>
+        <v>1.89</v>
       </c>
       <c r="C82" t="n">
-        <v>1.874</v>
+        <v>1.89</v>
       </c>
       <c r="D82" t="n">
-        <v>1.876</v>
+        <v>1.89</v>
       </c>
       <c r="E82" t="n">
-        <v>1.874</v>
+        <v>1.89</v>
       </c>
       <c r="F82" t="n">
-        <v>275219.7233</v>
+        <v>21832.8574</v>
       </c>
       <c r="G82" t="n">
-        <v>1.882216666666667</v>
+        <v>1.88255</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3302,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.898</v>
+        <v>1.876</v>
       </c>
       <c r="C83" t="n">
-        <v>1.881</v>
+        <v>1.874</v>
       </c>
       <c r="D83" t="n">
-        <v>1.898</v>
+        <v>1.876</v>
       </c>
       <c r="E83" t="n">
-        <v>1.881</v>
+        <v>1.874</v>
       </c>
       <c r="F83" t="n">
-        <v>2288073.88</v>
+        <v>275219.7233</v>
       </c>
       <c r="G83" t="n">
-        <v>1.882033333333333</v>
+        <v>1.882216666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3340,7 +3306,7 @@
         <v>1.898</v>
       </c>
       <c r="C84" t="n">
-        <v>1.898</v>
+        <v>1.881</v>
       </c>
       <c r="D84" t="n">
         <v>1.898</v>
@@ -3349,10 +3315,10 @@
         <v>1.881</v>
       </c>
       <c r="F84" t="n">
-        <v>2964282.88</v>
+        <v>2288073.88</v>
       </c>
       <c r="G84" t="n">
-        <v>1.8821</v>
+        <v>1.882033333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3372,10 +3338,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.881</v>
+        <v>1.898</v>
       </c>
       <c r="C85" t="n">
-        <v>1.881</v>
+        <v>1.898</v>
       </c>
       <c r="D85" t="n">
         <v>1.898</v>
@@ -3384,10 +3350,10 @@
         <v>1.881</v>
       </c>
       <c r="F85" t="n">
-        <v>2061212.88</v>
+        <v>2964282.88</v>
       </c>
       <c r="G85" t="n">
-        <v>1.88195</v>
+        <v>1.8821</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3407,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.899</v>
+        <v>1.881</v>
       </c>
       <c r="C86" t="n">
-        <v>1.899</v>
+        <v>1.881</v>
       </c>
       <c r="D86" t="n">
-        <v>1.899</v>
+        <v>1.898</v>
       </c>
       <c r="E86" t="n">
-        <v>1.899</v>
+        <v>1.881</v>
       </c>
       <c r="F86" t="n">
-        <v>2888</v>
+        <v>2061212.88</v>
       </c>
       <c r="G86" t="n">
-        <v>1.8821</v>
+        <v>1.88195</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3442,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.898</v>
+        <v>1.899</v>
       </c>
       <c r="C87" t="n">
-        <v>1.881</v>
+        <v>1.899</v>
       </c>
       <c r="D87" t="n">
-        <v>1.898</v>
+        <v>1.899</v>
       </c>
       <c r="E87" t="n">
-        <v>1.881</v>
+        <v>1.899</v>
       </c>
       <c r="F87" t="n">
-        <v>605218</v>
+        <v>2888</v>
       </c>
       <c r="G87" t="n">
-        <v>1.881883333333333</v>
+        <v>1.8821</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3480,7 +3446,7 @@
         <v>1.898</v>
       </c>
       <c r="C88" t="n">
-        <v>1.898</v>
+        <v>1.881</v>
       </c>
       <c r="D88" t="n">
         <v>1.898</v>
@@ -3489,10 +3455,10 @@
         <v>1.881</v>
       </c>
       <c r="F88" t="n">
-        <v>2933391.88</v>
+        <v>605218</v>
       </c>
       <c r="G88" t="n">
-        <v>1.88215</v>
+        <v>1.881883333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3512,10 +3478,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.881</v>
+        <v>1.898</v>
       </c>
       <c r="C89" t="n">
-        <v>1.881</v>
+        <v>1.898</v>
       </c>
       <c r="D89" t="n">
         <v>1.898</v>
@@ -3524,10 +3490,10 @@
         <v>1.881</v>
       </c>
       <c r="F89" t="n">
-        <v>3493278.88</v>
+        <v>2933391.88</v>
       </c>
       <c r="G89" t="n">
-        <v>1.882583333333333</v>
+        <v>1.88215</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3547,7 +3513,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.898</v>
+        <v>1.881</v>
       </c>
       <c r="C90" t="n">
         <v>1.881</v>
@@ -3559,10 +3525,10 @@
         <v>1.881</v>
       </c>
       <c r="F90" t="n">
-        <v>666952.88</v>
+        <v>3493278.88</v>
       </c>
       <c r="G90" t="n">
-        <v>1.883066666666666</v>
+        <v>1.882583333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3594,10 +3560,10 @@
         <v>1.881</v>
       </c>
       <c r="F91" t="n">
-        <v>768113</v>
+        <v>666952.88</v>
       </c>
       <c r="G91" t="n">
-        <v>1.883466666666666</v>
+        <v>1.883066666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3620,7 +3586,7 @@
         <v>1.898</v>
       </c>
       <c r="C92" t="n">
-        <v>1.898</v>
+        <v>1.881</v>
       </c>
       <c r="D92" t="n">
         <v>1.898</v>
@@ -3629,10 +3595,10 @@
         <v>1.881</v>
       </c>
       <c r="F92" t="n">
-        <v>3033659.88</v>
+        <v>768113</v>
       </c>
       <c r="G92" t="n">
-        <v>1.883666666666666</v>
+        <v>1.883466666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3652,10 +3618,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.881</v>
+        <v>1.898</v>
       </c>
       <c r="C93" t="n">
-        <v>1.881</v>
+        <v>1.898</v>
       </c>
       <c r="D93" t="n">
         <v>1.898</v>
@@ -3664,10 +3630,10 @@
         <v>1.881</v>
       </c>
       <c r="F93" t="n">
-        <v>3186719.88</v>
+        <v>3033659.88</v>
       </c>
       <c r="G93" t="n">
-        <v>1.883583333333333</v>
+        <v>1.883666666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3687,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.899</v>
+        <v>1.881</v>
       </c>
       <c r="C94" t="n">
-        <v>1.899</v>
+        <v>1.881</v>
       </c>
       <c r="D94" t="n">
-        <v>1.899</v>
+        <v>1.898</v>
       </c>
       <c r="E94" t="n">
-        <v>1.899</v>
+        <v>1.881</v>
       </c>
       <c r="F94" t="n">
-        <v>4245.7468</v>
+        <v>3186719.88</v>
       </c>
       <c r="G94" t="n">
-        <v>1.884066666666666</v>
+        <v>1.883583333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3722,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.898</v>
+        <v>1.899</v>
       </c>
       <c r="C95" t="n">
-        <v>1.898</v>
+        <v>1.899</v>
       </c>
       <c r="D95" t="n">
-        <v>1.898</v>
+        <v>1.899</v>
       </c>
       <c r="E95" t="n">
-        <v>1.898</v>
+        <v>1.899</v>
       </c>
       <c r="F95" t="n">
-        <v>222840</v>
+        <v>4245.7468</v>
       </c>
       <c r="G95" t="n">
-        <v>1.88425</v>
+        <v>1.884066666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3757,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.881</v>
+        <v>1.898</v>
       </c>
       <c r="C96" t="n">
-        <v>1.881</v>
+        <v>1.898</v>
       </c>
       <c r="D96" t="n">
         <v>1.898</v>
       </c>
       <c r="E96" t="n">
-        <v>1.881</v>
+        <v>1.898</v>
       </c>
       <c r="F96" t="n">
-        <v>3368479.88</v>
+        <v>222840</v>
       </c>
       <c r="G96" t="n">
-        <v>1.88415</v>
+        <v>1.88425</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3792,10 +3758,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.898</v>
+        <v>1.881</v>
       </c>
       <c r="C97" t="n">
-        <v>1.898</v>
+        <v>1.881</v>
       </c>
       <c r="D97" t="n">
         <v>1.898</v>
@@ -3804,10 +3770,10 @@
         <v>1.881</v>
       </c>
       <c r="F97" t="n">
-        <v>3079326.76</v>
+        <v>3368479.88</v>
       </c>
       <c r="G97" t="n">
-        <v>1.884616666666666</v>
+        <v>1.88415</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3830,7 +3796,7 @@
         <v>1.898</v>
       </c>
       <c r="C98" t="n">
-        <v>1.881</v>
+        <v>1.898</v>
       </c>
       <c r="D98" t="n">
         <v>1.898</v>
@@ -3839,10 +3805,10 @@
         <v>1.881</v>
       </c>
       <c r="F98" t="n">
-        <v>644997</v>
+        <v>3079326.76</v>
       </c>
       <c r="G98" t="n">
-        <v>1.884766666666666</v>
+        <v>1.884616666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3862,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.899</v>
+        <v>1.898</v>
       </c>
       <c r="C99" t="n">
-        <v>1.899</v>
+        <v>1.881</v>
       </c>
       <c r="D99" t="n">
-        <v>1.899</v>
+        <v>1.898</v>
       </c>
       <c r="E99" t="n">
-        <v>1.899</v>
+        <v>1.881</v>
       </c>
       <c r="F99" t="n">
-        <v>95629.4308</v>
+        <v>644997</v>
       </c>
       <c r="G99" t="n">
-        <v>1.885166666666666</v>
+        <v>1.884766666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3909,10 +3875,10 @@
         <v>1.899</v>
       </c>
       <c r="F100" t="n">
-        <v>150570.1552</v>
+        <v>95629.4308</v>
       </c>
       <c r="G100" t="n">
-        <v>1.885566666666666</v>
+        <v>1.885166666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3935,19 +3901,19 @@
         <v>1.899</v>
       </c>
       <c r="C101" t="n">
-        <v>1.881</v>
+        <v>1.899</v>
       </c>
       <c r="D101" t="n">
         <v>1.899</v>
       </c>
       <c r="E101" t="n">
-        <v>1.881</v>
+        <v>1.899</v>
       </c>
       <c r="F101" t="n">
-        <v>1546777</v>
+        <v>150570.1552</v>
       </c>
       <c r="G101" t="n">
-        <v>1.885533333333333</v>
+        <v>1.885566666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3970,7 +3936,7 @@
         <v>1.899</v>
       </c>
       <c r="C102" t="n">
-        <v>1.899</v>
+        <v>1.881</v>
       </c>
       <c r="D102" t="n">
         <v>1.899</v>
@@ -3979,10 +3945,10 @@
         <v>1.881</v>
       </c>
       <c r="F102" t="n">
-        <v>3228706.88</v>
+        <v>1546777</v>
       </c>
       <c r="G102" t="n">
-        <v>1.8858</v>
+        <v>1.885533333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4002,7 +3968,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.881</v>
+        <v>1.899</v>
       </c>
       <c r="C103" t="n">
         <v>1.899</v>
@@ -4014,10 +3980,10 @@
         <v>1.881</v>
       </c>
       <c r="F103" t="n">
-        <v>2756442.76</v>
+        <v>3228706.88</v>
       </c>
       <c r="G103" t="n">
-        <v>1.886083333333333</v>
+        <v>1.8858</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4040,19 +4006,19 @@
         <v>1.881</v>
       </c>
       <c r="C104" t="n">
-        <v>1.881</v>
+        <v>1.899</v>
       </c>
       <c r="D104" t="n">
-        <v>1.881</v>
+        <v>1.899</v>
       </c>
       <c r="E104" t="n">
         <v>1.881</v>
       </c>
       <c r="F104" t="n">
-        <v>499526</v>
+        <v>2756442.76</v>
       </c>
       <c r="G104" t="n">
-        <v>1.886116666666666</v>
+        <v>1.886083333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4072,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.88</v>
+        <v>1.881</v>
       </c>
       <c r="C105" t="n">
-        <v>1.9</v>
+        <v>1.881</v>
       </c>
       <c r="D105" t="n">
-        <v>1.9</v>
+        <v>1.881</v>
       </c>
       <c r="E105" t="n">
-        <v>1.88</v>
+        <v>1.881</v>
       </c>
       <c r="F105" t="n">
-        <v>72127.00440000001</v>
+        <v>499526</v>
       </c>
       <c r="G105" t="n">
-        <v>1.8864</v>
+        <v>1.886116666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4119,10 +4085,10 @@
         <v>1.88</v>
       </c>
       <c r="F106" t="n">
-        <v>43726.09</v>
+        <v>72127.00440000001</v>
       </c>
       <c r="G106" t="n">
-        <v>1.886683333333333</v>
+        <v>1.8864</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4142,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.899</v>
+        <v>1.88</v>
       </c>
       <c r="C107" t="n">
-        <v>1.874</v>
+        <v>1.9</v>
       </c>
       <c r="D107" t="n">
-        <v>1.899</v>
+        <v>1.9</v>
       </c>
       <c r="E107" t="n">
-        <v>1.874</v>
+        <v>1.88</v>
       </c>
       <c r="F107" t="n">
-        <v>3134240</v>
+        <v>43726.09</v>
       </c>
       <c r="G107" t="n">
-        <v>1.886633333333333</v>
+        <v>1.886683333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4180,7 +4146,7 @@
         <v>1.899</v>
       </c>
       <c r="C108" t="n">
-        <v>1.899</v>
+        <v>1.874</v>
       </c>
       <c r="D108" t="n">
         <v>1.899</v>
@@ -4189,10 +4155,10 @@
         <v>1.874</v>
       </c>
       <c r="F108" t="n">
-        <v>3386033.88</v>
+        <v>3134240</v>
       </c>
       <c r="G108" t="n">
-        <v>1.886866666666666</v>
+        <v>1.886633333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4212,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.874</v>
+        <v>1.899</v>
       </c>
       <c r="C109" t="n">
-        <v>1.874</v>
+        <v>1.899</v>
       </c>
       <c r="D109" t="n">
-        <v>1.898</v>
+        <v>1.899</v>
       </c>
       <c r="E109" t="n">
         <v>1.874</v>
       </c>
       <c r="F109" t="n">
-        <v>1248840</v>
+        <v>3386033.88</v>
       </c>
       <c r="G109" t="n">
-        <v>1.886916666666667</v>
+        <v>1.886866666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4247,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.876</v>
+        <v>1.874</v>
       </c>
       <c r="C110" t="n">
-        <v>1.9</v>
+        <v>1.874</v>
       </c>
       <c r="D110" t="n">
-        <v>1.9</v>
+        <v>1.898</v>
       </c>
       <c r="E110" t="n">
-        <v>1.876</v>
+        <v>1.874</v>
       </c>
       <c r="F110" t="n">
-        <v>25254.8274</v>
+        <v>1248840</v>
       </c>
       <c r="G110" t="n">
-        <v>1.887166666666666</v>
+        <v>1.886916666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4282,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="C111" t="n">
         <v>1.9</v>
       </c>
-      <c r="C111" t="n">
-        <v>1.913</v>
-      </c>
       <c r="D111" t="n">
-        <v>1.913</v>
+        <v>1.9</v>
       </c>
       <c r="E111" t="n">
-        <v>1.9</v>
+        <v>1.876</v>
       </c>
       <c r="F111" t="n">
-        <v>50651.4219</v>
+        <v>25254.8274</v>
       </c>
       <c r="G111" t="n">
-        <v>1.88785</v>
+        <v>1.887166666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4317,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.905</v>
+        <v>1.9</v>
       </c>
       <c r="C112" t="n">
-        <v>1.905</v>
+        <v>1.913</v>
       </c>
       <c r="D112" t="n">
-        <v>1.905</v>
+        <v>1.913</v>
       </c>
       <c r="E112" t="n">
-        <v>1.905</v>
+        <v>1.9</v>
       </c>
       <c r="F112" t="n">
-        <v>35288.2826</v>
+        <v>50651.4219</v>
       </c>
       <c r="G112" t="n">
-        <v>1.888183333333333</v>
+        <v>1.88785</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4364,10 +4330,10 @@
         <v>1.905</v>
       </c>
       <c r="F113" t="n">
-        <v>399.6681</v>
+        <v>35288.2826</v>
       </c>
       <c r="G113" t="n">
-        <v>1.888516666666666</v>
+        <v>1.888183333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4387,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="C114" t="n">
-        <v>1.899</v>
+        <v>1.905</v>
       </c>
       <c r="D114" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="E114" t="n">
-        <v>1.872</v>
+        <v>1.905</v>
       </c>
       <c r="F114" t="n">
-        <v>1898131.2932</v>
+        <v>399.6681</v>
       </c>
       <c r="G114" t="n">
-        <v>1.888749999999999</v>
+        <v>1.888516666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4422,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.873</v>
+        <v>1.9</v>
       </c>
       <c r="C115" t="n">
         <v>1.899</v>
       </c>
       <c r="D115" t="n">
-        <v>1.899</v>
+        <v>1.9</v>
       </c>
       <c r="E115" t="n">
-        <v>1.873</v>
+        <v>1.872</v>
       </c>
       <c r="F115" t="n">
-        <v>3258082.88</v>
+        <v>1898131.2932</v>
       </c>
       <c r="G115" t="n">
-        <v>1.888983333333333</v>
+        <v>1.888749999999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4457,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="C116" t="n">
         <v>1.899</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1.873</v>
       </c>
       <c r="D116" t="n">
         <v>1.899</v>
       </c>
       <c r="E116" t="n">
-        <v>1.872</v>
+        <v>1.873</v>
       </c>
       <c r="F116" t="n">
-        <v>2879031.4833</v>
+        <v>3258082.88</v>
       </c>
       <c r="G116" t="n">
-        <v>1.8887</v>
+        <v>1.888983333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4492,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E117" t="n">
         <v>1.872</v>
       </c>
-      <c r="C117" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="E117" t="n">
-        <v>1.852</v>
-      </c>
       <c r="F117" t="n">
-        <v>241942.8099</v>
+        <v>2879031.4833</v>
       </c>
       <c r="G117" t="n">
-        <v>1.887683333333333</v>
+        <v>1.8887</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4527,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.861</v>
+        <v>1.872</v>
       </c>
       <c r="C118" t="n">
-        <v>1.862</v>
+        <v>1.852</v>
       </c>
       <c r="D118" t="n">
-        <v>1.894</v>
+        <v>1.872</v>
       </c>
       <c r="E118" t="n">
-        <v>1.861</v>
+        <v>1.852</v>
       </c>
       <c r="F118" t="n">
-        <v>1539114.4772</v>
+        <v>241942.8099</v>
       </c>
       <c r="G118" t="n">
-        <v>1.8872</v>
+        <v>1.887683333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4562,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.878</v>
+        <v>1.861</v>
       </c>
       <c r="C119" t="n">
-        <v>1.894</v>
+        <v>1.862</v>
       </c>
       <c r="D119" t="n">
         <v>1.894</v>
       </c>
       <c r="E119" t="n">
-        <v>1.862</v>
+        <v>1.861</v>
       </c>
       <c r="F119" t="n">
-        <v>3059525.88</v>
+        <v>1539114.4772</v>
       </c>
       <c r="G119" t="n">
-        <v>1.887249999999999</v>
+        <v>1.8872</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4597,7 +4563,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.862</v>
+        <v>1.878</v>
       </c>
       <c r="C120" t="n">
         <v>1.894</v>
@@ -4609,10 +4575,10 @@
         <v>1.862</v>
       </c>
       <c r="F120" t="n">
-        <v>2919445.76</v>
+        <v>3059525.88</v>
       </c>
       <c r="G120" t="n">
-        <v>1.886966666666666</v>
+        <v>1.887249999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4632,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.863</v>
+        <v>1.862</v>
       </c>
       <c r="C121" t="n">
-        <v>1.862</v>
+        <v>1.894</v>
       </c>
       <c r="D121" t="n">
-        <v>1.863</v>
+        <v>1.894</v>
       </c>
       <c r="E121" t="n">
         <v>1.862</v>
       </c>
       <c r="F121" t="n">
-        <v>508402.9619</v>
+        <v>2919445.76</v>
       </c>
       <c r="G121" t="n">
-        <v>1.886166666666666</v>
+        <v>1.886966666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4667,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.894</v>
+        <v>1.863</v>
       </c>
       <c r="C122" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="D122" t="n">
         <v>1.863</v>
       </c>
-      <c r="D122" t="n">
-        <v>1.894</v>
-      </c>
       <c r="E122" t="n">
-        <v>1.863</v>
+        <v>1.862</v>
       </c>
       <c r="F122" t="n">
-        <v>1405523.88</v>
+        <v>508402.9619</v>
       </c>
       <c r="G122" t="n">
-        <v>1.885833333333333</v>
+        <v>1.886166666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4714,19 +4680,23 @@
         <v>1.863</v>
       </c>
       <c r="F123" t="n">
-        <v>819642</v>
+        <v>1405523.88</v>
       </c>
       <c r="G123" t="n">
-        <v>1.8855</v>
+        <v>1.885833333333333</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1.862</v>
+      </c>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
@@ -4749,10 +4719,10 @@
         <v>1.863</v>
       </c>
       <c r="F124" t="n">
-        <v>2890846.95</v>
+        <v>819642</v>
       </c>
       <c r="G124" t="n">
-        <v>1.8849</v>
+        <v>1.8855</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4761,8 +4731,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4784,10 +4760,10 @@
         <v>1.863</v>
       </c>
       <c r="F125" t="n">
-        <v>2367012.88</v>
+        <v>2890846.95</v>
       </c>
       <c r="G125" t="n">
-        <v>1.884566666666667</v>
+        <v>1.8849</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4796,8 +4772,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4807,32 +4789,40 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2367012.88</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1.884566666666667</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="K126" t="n">
         <v>1.862</v>
       </c>
-      <c r="C126" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="D126" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="E126" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="F126" t="n">
-        <v>129721.4895</v>
-      </c>
-      <c r="G126" t="n">
-        <v>1.883916666666666</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4845,29 +4835,35 @@
         <v>1.862</v>
       </c>
       <c r="C127" t="n">
-        <v>1.862</v>
+        <v>1.861</v>
       </c>
       <c r="D127" t="n">
         <v>1.862</v>
       </c>
       <c r="E127" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="F127" t="n">
+        <v>129721.4895</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1.883916666666666</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
         <v>1.862</v>
       </c>
-      <c r="F127" t="n">
-        <v>270000</v>
-      </c>
-      <c r="G127" t="n">
-        <v>1.884283333333333</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4877,32 +4873,40 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.864</v>
+        <v>1.862</v>
       </c>
       <c r="C128" t="n">
-        <v>1.864</v>
+        <v>1.862</v>
       </c>
       <c r="D128" t="n">
-        <v>1.864</v>
+        <v>1.862</v>
       </c>
       <c r="E128" t="n">
-        <v>1.864</v>
+        <v>1.862</v>
       </c>
       <c r="F128" t="n">
-        <v>687.7996000000001</v>
+        <v>270000</v>
       </c>
       <c r="G128" t="n">
-        <v>1.883883333333333</v>
+        <v>1.884283333333333</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4924,10 +4928,10 @@
         <v>1.864</v>
       </c>
       <c r="F129" t="n">
-        <v>1398682.6121</v>
+        <v>687.7996000000001</v>
       </c>
       <c r="G129" t="n">
-        <v>1.884083333333333</v>
+        <v>1.883883333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4936,8 +4940,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4950,29 +4960,37 @@
         <v>1.864</v>
       </c>
       <c r="C130" t="n">
-        <v>1.862</v>
+        <v>1.864</v>
       </c>
       <c r="D130" t="n">
         <v>1.864</v>
       </c>
       <c r="E130" t="n">
+        <v>1.864</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1398682.6121</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1.884083333333333</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.864</v>
+      </c>
+      <c r="K130" t="n">
         <v>1.862</v>
       </c>
-      <c r="F130" t="n">
-        <v>3748651.0649</v>
-      </c>
-      <c r="G130" t="n">
-        <v>1.884099999999999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4985,19 +5003,19 @@
         <v>1.864</v>
       </c>
       <c r="C131" t="n">
-        <v>1.864</v>
+        <v>1.862</v>
       </c>
       <c r="D131" t="n">
         <v>1.864</v>
       </c>
       <c r="E131" t="n">
-        <v>1.864</v>
+        <v>1.862</v>
       </c>
       <c r="F131" t="n">
-        <v>160952.217</v>
+        <v>3748651.0649</v>
       </c>
       <c r="G131" t="n">
-        <v>1.884149999999999</v>
+        <v>1.884099999999999</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5006,8 +5024,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5029,20 +5053,28 @@
         <v>1.864</v>
       </c>
       <c r="F132" t="n">
-        <v>5399.2462</v>
+        <v>160952.217</v>
       </c>
       <c r="G132" t="n">
-        <v>1.883749999999999</v>
+        <v>1.884149999999999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5064,10 +5096,10 @@
         <v>1.864</v>
       </c>
       <c r="F133" t="n">
-        <v>180292</v>
+        <v>5399.2462</v>
       </c>
       <c r="G133" t="n">
-        <v>1.883633333333333</v>
+        <v>1.883749999999999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5076,8 +5108,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5087,32 +5125,40 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.878</v>
+        <v>1.864</v>
       </c>
       <c r="C134" t="n">
-        <v>1.878</v>
+        <v>1.864</v>
       </c>
       <c r="D134" t="n">
-        <v>1.878</v>
+        <v>1.864</v>
       </c>
       <c r="E134" t="n">
-        <v>1.878</v>
+        <v>1.864</v>
       </c>
       <c r="F134" t="n">
-        <v>1936.0278</v>
+        <v>180292</v>
       </c>
       <c r="G134" t="n">
-        <v>1.88345</v>
+        <v>1.883633333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1.864</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5125,19 +5171,19 @@
         <v>1.878</v>
       </c>
       <c r="C135" t="n">
-        <v>1.88</v>
+        <v>1.878</v>
       </c>
       <c r="D135" t="n">
-        <v>1.88</v>
+        <v>1.878</v>
       </c>
       <c r="E135" t="n">
         <v>1.878</v>
       </c>
       <c r="F135" t="n">
-        <v>77307.7968</v>
+        <v>1936.0278</v>
       </c>
       <c r="G135" t="n">
-        <v>1.883433333333333</v>
+        <v>1.88345</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5146,8 +5192,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5157,32 +5209,40 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.892</v>
+        <v>1.878</v>
       </c>
       <c r="C136" t="n">
-        <v>1.872</v>
+        <v>1.88</v>
       </c>
       <c r="D136" t="n">
-        <v>1.892</v>
+        <v>1.88</v>
       </c>
       <c r="E136" t="n">
-        <v>1.872</v>
+        <v>1.878</v>
       </c>
       <c r="F136" t="n">
-        <v>3501106.88</v>
+        <v>77307.7968</v>
       </c>
       <c r="G136" t="n">
-        <v>1.883283333333333</v>
+        <v>1.883433333333333</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5195,7 +5255,7 @@
         <v>1.892</v>
       </c>
       <c r="C137" t="n">
-        <v>1.892</v>
+        <v>1.872</v>
       </c>
       <c r="D137" t="n">
         <v>1.892</v>
@@ -5204,10 +5264,10 @@
         <v>1.872</v>
       </c>
       <c r="F137" t="n">
-        <v>2857105.76</v>
+        <v>3501106.88</v>
       </c>
       <c r="G137" t="n">
-        <v>1.883466666666666</v>
+        <v>1.883283333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5216,8 +5276,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5230,19 +5296,19 @@
         <v>1.892</v>
       </c>
       <c r="C138" t="n">
-        <v>1.874</v>
+        <v>1.892</v>
       </c>
       <c r="D138" t="n">
         <v>1.892</v>
       </c>
       <c r="E138" t="n">
-        <v>1.874</v>
+        <v>1.872</v>
       </c>
       <c r="F138" t="n">
-        <v>683529</v>
+        <v>2857105.76</v>
       </c>
       <c r="G138" t="n">
-        <v>1.882816666666666</v>
+        <v>1.883466666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5251,8 +5317,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5262,22 +5334,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.893</v>
+        <v>1.892</v>
       </c>
       <c r="C139" t="n">
-        <v>1.893</v>
+        <v>1.874</v>
       </c>
       <c r="D139" t="n">
-        <v>1.893</v>
+        <v>1.892</v>
       </c>
       <c r="E139" t="n">
-        <v>1.893</v>
+        <v>1.874</v>
       </c>
       <c r="F139" t="n">
-        <v>265</v>
+        <v>683529</v>
       </c>
       <c r="G139" t="n">
-        <v>1.883016666666666</v>
+        <v>1.882816666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5286,8 +5358,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5297,22 +5375,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.892</v>
+        <v>1.893</v>
       </c>
       <c r="C140" t="n">
-        <v>1.874</v>
+        <v>1.893</v>
       </c>
       <c r="D140" t="n">
-        <v>1.892</v>
+        <v>1.893</v>
       </c>
       <c r="E140" t="n">
-        <v>1.874</v>
+        <v>1.893</v>
       </c>
       <c r="F140" t="n">
-        <v>799384</v>
+        <v>265</v>
       </c>
       <c r="G140" t="n">
-        <v>1.882733333333333</v>
+        <v>1.883016666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5321,8 +5399,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5344,10 +5428,10 @@
         <v>1.874</v>
       </c>
       <c r="F141" t="n">
-        <v>3718784.88</v>
+        <v>799384</v>
       </c>
       <c r="G141" t="n">
-        <v>1.882466666666666</v>
+        <v>1.882733333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5356,8 +5440,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5379,7 +5469,7 @@
         <v>1.874</v>
       </c>
       <c r="F142" t="n">
-        <v>2893477.88</v>
+        <v>3718784.88</v>
       </c>
       <c r="G142" t="n">
         <v>1.882466666666666</v>
@@ -5391,8 +5481,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5405,19 +5501,19 @@
         <v>1.892</v>
       </c>
       <c r="C143" t="n">
-        <v>1.892</v>
+        <v>1.874</v>
       </c>
       <c r="D143" t="n">
         <v>1.892</v>
       </c>
       <c r="E143" t="n">
-        <v>1.892</v>
+        <v>1.874</v>
       </c>
       <c r="F143" t="n">
-        <v>253640</v>
+        <v>2893477.88</v>
       </c>
       <c r="G143" t="n">
-        <v>1.882649999999999</v>
+        <v>1.882466666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5426,8 +5522,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5437,22 +5539,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.874</v>
+        <v>1.892</v>
       </c>
       <c r="C144" t="n">
-        <v>1.875</v>
+        <v>1.892</v>
       </c>
       <c r="D144" t="n">
         <v>1.892</v>
       </c>
       <c r="E144" t="n">
-        <v>1.874</v>
+        <v>1.892</v>
       </c>
       <c r="F144" t="n">
-        <v>3584749.88</v>
+        <v>253640</v>
       </c>
       <c r="G144" t="n">
-        <v>1.882266666666666</v>
+        <v>1.882649999999999</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5461,8 +5563,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5472,10 +5580,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.892</v>
+        <v>1.874</v>
       </c>
       <c r="C145" t="n">
-        <v>1.89</v>
+        <v>1.875</v>
       </c>
       <c r="D145" t="n">
         <v>1.892</v>
@@ -5484,10 +5592,10 @@
         <v>1.874</v>
       </c>
       <c r="F145" t="n">
-        <v>2144260.9112</v>
+        <v>3584749.88</v>
       </c>
       <c r="G145" t="n">
-        <v>1.882416666666666</v>
+        <v>1.882266666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5496,8 +5604,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5507,22 +5621,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.89</v>
+        <v>1.892</v>
       </c>
       <c r="C146" t="n">
         <v>1.89</v>
       </c>
       <c r="D146" t="n">
-        <v>1.89</v>
+        <v>1.892</v>
       </c>
       <c r="E146" t="n">
-        <v>1.89</v>
+        <v>1.874</v>
       </c>
       <c r="F146" t="n">
-        <v>105888.3743</v>
+        <v>2144260.9112</v>
       </c>
       <c r="G146" t="n">
-        <v>1.882266666666666</v>
+        <v>1.882416666666666</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5531,8 +5645,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5542,22 +5662,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.889</v>
+        <v>1.89</v>
       </c>
       <c r="C147" t="n">
-        <v>1.889</v>
+        <v>1.89</v>
       </c>
       <c r="D147" t="n">
         <v>1.89</v>
       </c>
       <c r="E147" t="n">
-        <v>1.888</v>
+        <v>1.89</v>
       </c>
       <c r="F147" t="n">
-        <v>112222.6349</v>
+        <v>105888.3743</v>
       </c>
       <c r="G147" t="n">
-        <v>1.882399999999999</v>
+        <v>1.882266666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5566,8 +5686,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5583,16 +5709,16 @@
         <v>1.889</v>
       </c>
       <c r="D148" t="n">
-        <v>1.889</v>
+        <v>1.89</v>
       </c>
       <c r="E148" t="n">
-        <v>1.889</v>
+        <v>1.888</v>
       </c>
       <c r="F148" t="n">
-        <v>151090.2176</v>
+        <v>112222.6349</v>
       </c>
       <c r="G148" t="n">
-        <v>1.882249999999999</v>
+        <v>1.882399999999999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5601,8 +5727,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5612,22 +5744,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.88</v>
+        <v>1.889</v>
       </c>
       <c r="C149" t="n">
-        <v>1.88</v>
+        <v>1.889</v>
       </c>
       <c r="D149" t="n">
-        <v>1.88</v>
+        <v>1.889</v>
       </c>
       <c r="E149" t="n">
-        <v>1.88</v>
+        <v>1.889</v>
       </c>
       <c r="F149" t="n">
-        <v>75996.2153</v>
+        <v>151090.2176</v>
       </c>
       <c r="G149" t="n">
-        <v>1.882233333333332</v>
+        <v>1.882249999999999</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5636,8 +5768,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5647,22 +5785,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.889</v>
+        <v>1.88</v>
       </c>
       <c r="C150" t="n">
-        <v>1.889</v>
+        <v>1.88</v>
       </c>
       <c r="D150" t="n">
-        <v>1.889</v>
+        <v>1.88</v>
       </c>
       <c r="E150" t="n">
-        <v>1.889</v>
+        <v>1.88</v>
       </c>
       <c r="F150" t="n">
-        <v>1800</v>
+        <v>75996.2153</v>
       </c>
       <c r="G150" t="n">
-        <v>1.882366666666666</v>
+        <v>1.882233333333332</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5671,8 +5809,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5694,10 +5838,10 @@
         <v>1.889</v>
       </c>
       <c r="F151" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="G151" t="n">
-        <v>1.882499999999999</v>
+        <v>1.882366666666666</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5706,8 +5850,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5729,10 +5879,10 @@
         <v>1.889</v>
       </c>
       <c r="F152" t="n">
-        <v>4776.3861</v>
+        <v>1500</v>
       </c>
       <c r="G152" t="n">
-        <v>1.882349999999999</v>
+        <v>1.882499999999999</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5741,8 +5891,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5764,10 +5920,10 @@
         <v>1.889</v>
       </c>
       <c r="F153" t="n">
-        <v>839.7912</v>
+        <v>4776.3861</v>
       </c>
       <c r="G153" t="n">
-        <v>1.882483333333332</v>
+        <v>1.882349999999999</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5776,8 +5932,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5799,10 +5961,10 @@
         <v>1.889</v>
       </c>
       <c r="F154" t="n">
-        <v>739.6761</v>
+        <v>839.7912</v>
       </c>
       <c r="G154" t="n">
-        <v>1.882316666666665</v>
+        <v>1.882483333333332</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5811,8 +5973,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5834,10 +6002,10 @@
         <v>1.889</v>
       </c>
       <c r="F155" t="n">
-        <v>390.3436</v>
+        <v>739.6761</v>
       </c>
       <c r="G155" t="n">
-        <v>1.882166666666665</v>
+        <v>1.882316666666665</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5846,8 +6014,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5860,19 +6034,19 @@
         <v>1.889</v>
       </c>
       <c r="C156" t="n">
-        <v>1.89</v>
+        <v>1.889</v>
       </c>
       <c r="D156" t="n">
-        <v>1.89</v>
+        <v>1.889</v>
       </c>
       <c r="E156" t="n">
-        <v>1.888</v>
+        <v>1.889</v>
       </c>
       <c r="F156" t="n">
-        <v>132641.2381</v>
+        <v>390.3436</v>
       </c>
       <c r="G156" t="n">
-        <v>1.882316666666665</v>
+        <v>1.882166666666665</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5881,8 +6055,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5892,22 +6072,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.887</v>
+        <v>1.889</v>
       </c>
       <c r="C157" t="n">
-        <v>1.887</v>
+        <v>1.89</v>
       </c>
       <c r="D157" t="n">
-        <v>1.887</v>
+        <v>1.89</v>
       </c>
       <c r="E157" t="n">
-        <v>1.887</v>
+        <v>1.888</v>
       </c>
       <c r="F157" t="n">
-        <v>1835.9575</v>
+        <v>132641.2381</v>
       </c>
       <c r="G157" t="n">
-        <v>1.882133333333332</v>
+        <v>1.882316666666665</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5916,8 +6096,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5927,22 +6113,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.886</v>
+        <v>1.887</v>
       </c>
       <c r="C158" t="n">
-        <v>1.88</v>
+        <v>1.887</v>
       </c>
       <c r="D158" t="n">
-        <v>1.886</v>
+        <v>1.887</v>
       </c>
       <c r="E158" t="n">
-        <v>1.88</v>
+        <v>1.887</v>
       </c>
       <c r="F158" t="n">
-        <v>110168.3699</v>
+        <v>1835.9575</v>
       </c>
       <c r="G158" t="n">
-        <v>1.882116666666665</v>
+        <v>1.882133333333332</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5951,8 +6137,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5962,22 +6154,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.879</v>
+        <v>1.886</v>
       </c>
       <c r="C159" t="n">
-        <v>1.875</v>
+        <v>1.88</v>
       </c>
       <c r="D159" t="n">
-        <v>1.879</v>
+        <v>1.886</v>
       </c>
       <c r="E159" t="n">
-        <v>1.875</v>
+        <v>1.88</v>
       </c>
       <c r="F159" t="n">
-        <v>25677.8496</v>
+        <v>110168.3699</v>
       </c>
       <c r="G159" t="n">
-        <v>1.881716666666665</v>
+        <v>1.882116666666665</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5986,8 +6178,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5997,22 +6195,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.874</v>
+        <v>1.879</v>
       </c>
       <c r="C160" t="n">
-        <v>1.874</v>
+        <v>1.875</v>
       </c>
       <c r="D160" t="n">
-        <v>1.874</v>
+        <v>1.879</v>
       </c>
       <c r="E160" t="n">
-        <v>1.874</v>
+        <v>1.875</v>
       </c>
       <c r="F160" t="n">
-        <v>92031.7325</v>
+        <v>25677.8496</v>
       </c>
       <c r="G160" t="n">
-        <v>1.881299999999999</v>
+        <v>1.881716666666665</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6021,8 +6219,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6032,22 +6236,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.887</v>
+        <v>1.874</v>
       </c>
       <c r="C161" t="n">
-        <v>1.887</v>
+        <v>1.874</v>
       </c>
       <c r="D161" t="n">
-        <v>1.887</v>
+        <v>1.874</v>
       </c>
       <c r="E161" t="n">
-        <v>1.887</v>
+        <v>1.874</v>
       </c>
       <c r="F161" t="n">
-        <v>3164.0425</v>
+        <v>92031.7325</v>
       </c>
       <c r="G161" t="n">
-        <v>1.881399999999999</v>
+        <v>1.881299999999999</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6056,8 +6260,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6067,22 +6277,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.89</v>
+        <v>1.887</v>
       </c>
       <c r="C162" t="n">
-        <v>1.89</v>
+        <v>1.887</v>
       </c>
       <c r="D162" t="n">
-        <v>1.89</v>
+        <v>1.887</v>
       </c>
       <c r="E162" t="n">
-        <v>1.89</v>
+        <v>1.887</v>
       </c>
       <c r="F162" t="n">
-        <v>265</v>
+        <v>3164.0425</v>
       </c>
       <c r="G162" t="n">
-        <v>1.881249999999999</v>
+        <v>1.881399999999999</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6091,8 +6301,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6102,22 +6318,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="C163" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="D163" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="E163" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="F163" t="n">
-        <v>1301.3106</v>
+        <v>265</v>
       </c>
       <c r="G163" t="n">
-        <v>1.880933333333332</v>
+        <v>1.881249999999999</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6126,8 +6342,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6140,19 +6362,19 @@
         <v>1.88</v>
       </c>
       <c r="C164" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="D164" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="E164" t="n">
         <v>1.88</v>
       </c>
       <c r="F164" t="n">
-        <v>108832.5751</v>
+        <v>1301.3106</v>
       </c>
       <c r="G164" t="n">
-        <v>1.881083333333332</v>
+        <v>1.880933333333332</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6161,8 +6383,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6175,19 +6403,19 @@
         <v>1.88</v>
       </c>
       <c r="C165" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="D165" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="E165" t="n">
         <v>1.88</v>
       </c>
       <c r="F165" t="n">
-        <v>5000</v>
+        <v>108832.5751</v>
       </c>
       <c r="G165" t="n">
-        <v>1.880749999999998</v>
+        <v>1.881083333333332</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6196,8 +6424,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6207,22 +6441,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="C166" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="D166" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="E166" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="F166" t="n">
-        <v>265</v>
+        <v>5000</v>
       </c>
       <c r="G166" t="n">
-        <v>1.880583333333331</v>
+        <v>1.880749999999998</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6231,8 +6465,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6242,22 +6482,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="C167" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="D167" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="E167" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="F167" t="n">
-        <v>48995.1898</v>
+        <v>265</v>
       </c>
       <c r="G167" t="n">
-        <v>1.880683333333331</v>
+        <v>1.880583333333331</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6266,8 +6506,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6277,22 +6523,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="C168" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="D168" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="E168" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="F168" t="n">
-        <v>265</v>
+        <v>48995.1898</v>
       </c>
       <c r="G168" t="n">
-        <v>1.880533333333332</v>
+        <v>1.880683333333331</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6301,8 +6547,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6312,7 +6564,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.881</v>
+        <v>1.89</v>
       </c>
       <c r="C169" t="n">
         <v>1.89</v>
@@ -6321,13 +6573,13 @@
         <v>1.89</v>
       </c>
       <c r="E169" t="n">
-        <v>1.881</v>
+        <v>1.89</v>
       </c>
       <c r="F169" t="n">
-        <v>408777.4785</v>
+        <v>265</v>
       </c>
       <c r="G169" t="n">
-        <v>1.880799999999998</v>
+        <v>1.880533333333332</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6336,8 +6588,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6350,19 +6608,19 @@
         <v>1.881</v>
       </c>
       <c r="C170" t="n">
-        <v>1.894</v>
+        <v>1.89</v>
       </c>
       <c r="D170" t="n">
-        <v>1.894</v>
+        <v>1.89</v>
       </c>
       <c r="E170" t="n">
         <v>1.881</v>
       </c>
       <c r="F170" t="n">
-        <v>47716.3901</v>
+        <v>408777.4785</v>
       </c>
       <c r="G170" t="n">
-        <v>1.880699999999998</v>
+        <v>1.880799999999998</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6371,8 +6629,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6382,7 +6646,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1.883</v>
+        <v>1.881</v>
       </c>
       <c r="C171" t="n">
         <v>1.894</v>
@@ -6391,13 +6655,13 @@
         <v>1.894</v>
       </c>
       <c r="E171" t="n">
-        <v>1.883</v>
+        <v>1.881</v>
       </c>
       <c r="F171" t="n">
-        <v>187662.3727</v>
+        <v>47716.3901</v>
       </c>
       <c r="G171" t="n">
-        <v>1.880383333333332</v>
+        <v>1.880699999999998</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6406,8 +6670,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6417,22 +6687,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="C172" t="n">
         <v>1.894</v>
       </c>
-      <c r="C172" t="n">
-        <v>1.897</v>
-      </c>
       <c r="D172" t="n">
-        <v>1.897</v>
+        <v>1.894</v>
       </c>
       <c r="E172" t="n">
-        <v>1.894</v>
+        <v>1.883</v>
       </c>
       <c r="F172" t="n">
-        <v>443215.1881</v>
+        <v>187662.3727</v>
       </c>
       <c r="G172" t="n">
-        <v>1.880249999999999</v>
+        <v>1.880383333333332</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6441,8 +6711,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6452,7 +6728,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1.886</v>
+        <v>1.894</v>
       </c>
       <c r="C173" t="n">
         <v>1.897</v>
@@ -6461,13 +6737,13 @@
         <v>1.897</v>
       </c>
       <c r="E173" t="n">
-        <v>1.886</v>
+        <v>1.894</v>
       </c>
       <c r="F173" t="n">
-        <v>2586.0153</v>
+        <v>443215.1881</v>
       </c>
       <c r="G173" t="n">
-        <v>1.880116666666665</v>
+        <v>1.880249999999999</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6476,8 +6752,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6487,7 +6769,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.897</v>
+        <v>1.886</v>
       </c>
       <c r="C174" t="n">
         <v>1.897</v>
@@ -6496,13 +6778,13 @@
         <v>1.897</v>
       </c>
       <c r="E174" t="n">
-        <v>1.897</v>
+        <v>1.886</v>
       </c>
       <c r="F174" t="n">
-        <v>189490.7605</v>
+        <v>2586.0153</v>
       </c>
       <c r="G174" t="n">
-        <v>1.880083333333332</v>
+        <v>1.880116666666665</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6511,8 +6793,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6525,19 +6813,19 @@
         <v>1.897</v>
       </c>
       <c r="C175" t="n">
-        <v>1.91</v>
+        <v>1.897</v>
       </c>
       <c r="D175" t="n">
-        <v>1.91</v>
+        <v>1.897</v>
       </c>
       <c r="E175" t="n">
         <v>1.897</v>
       </c>
       <c r="F175" t="n">
-        <v>21874.2646</v>
+        <v>189490.7605</v>
       </c>
       <c r="G175" t="n">
-        <v>1.880266666666665</v>
+        <v>1.880083333333332</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6546,8 +6834,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6560,19 +6854,19 @@
         <v>1.897</v>
       </c>
       <c r="C176" t="n">
-        <v>1.911</v>
+        <v>1.91</v>
       </c>
       <c r="D176" t="n">
-        <v>1.911</v>
+        <v>1.91</v>
       </c>
       <c r="E176" t="n">
         <v>1.897</v>
       </c>
       <c r="F176" t="n">
-        <v>11965.5831</v>
+        <v>21874.2646</v>
       </c>
       <c r="G176" t="n">
-        <v>1.880899999999998</v>
+        <v>1.880266666666665</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6581,8 +6875,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6592,22 +6892,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="C177" t="n">
-        <v>1.9</v>
+        <v>1.911</v>
       </c>
       <c r="D177" t="n">
-        <v>1.9</v>
+        <v>1.911</v>
       </c>
       <c r="E177" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="F177" t="n">
-        <v>30671.2883</v>
+        <v>11965.5831</v>
       </c>
       <c r="G177" t="n">
-        <v>1.881699999999999</v>
+        <v>1.880899999999998</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6616,8 +6916,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6639,22 +6945,28 @@
         <v>1.9</v>
       </c>
       <c r="F178" t="n">
-        <v>1687.5138</v>
+        <v>30671.2883</v>
       </c>
       <c r="G178" t="n">
-        <v>1.882333333333332</v>
+        <v>1.881699999999999</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M178" t="n">
-        <v>1</v>
+        <v>1.015408163265306</v>
       </c>
     </row>
     <row r="179">
@@ -6662,22 +6974,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="C179" t="n">
-        <v>1.911</v>
+        <v>1.9</v>
       </c>
       <c r="D179" t="n">
-        <v>1.911</v>
+        <v>1.9</v>
       </c>
       <c r="E179" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="F179" t="n">
-        <v>124316.9437</v>
+        <v>1687.5138</v>
       </c>
       <c r="G179" t="n">
-        <v>1.882616666666665</v>
+        <v>1.882333333333332</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6697,22 +7009,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="C180" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="E180" t="n">
         <v>1.91</v>
       </c>
-      <c r="D180" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1.9</v>
-      </c>
       <c r="F180" t="n">
-        <v>2984.7018</v>
+        <v>124316.9437</v>
       </c>
       <c r="G180" t="n">
-        <v>1.882883333333332</v>
+        <v>1.882616666666665</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6735,19 +7047,19 @@
         <v>1.9</v>
       </c>
       <c r="C181" t="n">
-        <v>1.905</v>
+        <v>1.91</v>
       </c>
       <c r="D181" t="n">
-        <v>1.905</v>
+        <v>1.91</v>
       </c>
       <c r="E181" t="n">
         <v>1.9</v>
       </c>
       <c r="F181" t="n">
-        <v>130499.3819</v>
+        <v>2984.7018</v>
       </c>
       <c r="G181" t="n">
-        <v>1.883599999999999</v>
+        <v>1.882883333333332</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6767,7 +7079,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1.905</v>
+        <v>1.9</v>
       </c>
       <c r="C182" t="n">
         <v>1.905</v>
@@ -6776,19 +7088,19 @@
         <v>1.905</v>
       </c>
       <c r="E182" t="n">
-        <v>1.905</v>
+        <v>1.9</v>
       </c>
       <c r="F182" t="n">
-        <v>2127.0079</v>
+        <v>130499.3819</v>
       </c>
       <c r="G182" t="n">
-        <v>1.884299999999999</v>
+        <v>1.883599999999999</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -6802,28 +7114,28 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1.898</v>
+        <v>1.905</v>
       </c>
       <c r="C183" t="n">
-        <v>1.898</v>
+        <v>1.905</v>
       </c>
       <c r="D183" t="n">
-        <v>1.898</v>
+        <v>1.905</v>
       </c>
       <c r="E183" t="n">
-        <v>1.898</v>
+        <v>1.905</v>
       </c>
       <c r="F183" t="n">
-        <v>53443.4511</v>
+        <v>2127.0079</v>
       </c>
       <c r="G183" t="n">
-        <v>1.884883333333332</v>
+        <v>1.884299999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
@@ -6849,10 +7161,10 @@
         <v>1.898</v>
       </c>
       <c r="F184" t="n">
-        <v>5000</v>
+        <v>53443.4511</v>
       </c>
       <c r="G184" t="n">
-        <v>1.885466666666665</v>
+        <v>1.884883333333332</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6872,22 +7184,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1.904</v>
+        <v>1.898</v>
       </c>
       <c r="C185" t="n">
-        <v>1.904</v>
+        <v>1.898</v>
       </c>
       <c r="D185" t="n">
-        <v>1.904</v>
+        <v>1.898</v>
       </c>
       <c r="E185" t="n">
-        <v>1.904</v>
+        <v>1.898</v>
       </c>
       <c r="F185" t="n">
-        <v>270</v>
+        <v>5000</v>
       </c>
       <c r="G185" t="n">
-        <v>1.886149999999998</v>
+        <v>1.885466666666665</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6907,22 +7219,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1.898</v>
+        <v>1.904</v>
       </c>
       <c r="C186" t="n">
-        <v>1.898</v>
+        <v>1.904</v>
       </c>
       <c r="D186" t="n">
-        <v>1.898</v>
+        <v>1.904</v>
       </c>
       <c r="E186" t="n">
-        <v>1.898</v>
+        <v>1.904</v>
       </c>
       <c r="F186" t="n">
-        <v>90678.788</v>
+        <v>270</v>
       </c>
       <c r="G186" t="n">
-        <v>1.886766666666665</v>
+        <v>1.886149999999998</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6942,22 +7254,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1.897</v>
+        <v>1.898</v>
       </c>
       <c r="C187" t="n">
-        <v>1.897</v>
+        <v>1.898</v>
       </c>
       <c r="D187" t="n">
-        <v>1.897</v>
+        <v>1.898</v>
       </c>
       <c r="E187" t="n">
-        <v>1.897</v>
+        <v>1.898</v>
       </c>
       <c r="F187" t="n">
-        <v>13397.6183</v>
+        <v>90678.788</v>
       </c>
       <c r="G187" t="n">
-        <v>1.887349999999999</v>
+        <v>1.886766666666665</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6977,22 +7289,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1.904</v>
+        <v>1.897</v>
       </c>
       <c r="C188" t="n">
-        <v>1.904</v>
+        <v>1.897</v>
       </c>
       <c r="D188" t="n">
-        <v>1.904</v>
+        <v>1.897</v>
       </c>
       <c r="E188" t="n">
-        <v>1.904</v>
+        <v>1.897</v>
       </c>
       <c r="F188" t="n">
-        <v>6939.479</v>
+        <v>13397.6183</v>
       </c>
       <c r="G188" t="n">
-        <v>1.888016666666665</v>
+        <v>1.887349999999999</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7024,10 +7336,10 @@
         <v>1.904</v>
       </c>
       <c r="F189" t="n">
-        <v>3151.260504201681</v>
+        <v>6939.479</v>
       </c>
       <c r="G189" t="n">
-        <v>1.888683333333332</v>
+        <v>1.888016666666665</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7047,22 +7359,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1.897</v>
+        <v>1.904</v>
       </c>
       <c r="C190" t="n">
-        <v>1.903</v>
+        <v>1.904</v>
       </c>
       <c r="D190" t="n">
-        <v>1.903</v>
+        <v>1.904</v>
       </c>
       <c r="E190" t="n">
-        <v>1.897</v>
+        <v>1.904</v>
       </c>
       <c r="F190" t="n">
-        <v>330758.7015</v>
+        <v>3151.260504201681</v>
       </c>
       <c r="G190" t="n">
-        <v>1.889366666666665</v>
+        <v>1.888683333333332</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7077,6 +7389,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="F191" t="n">
+        <v>330758.7015</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1.889366666666665</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-14 BackTest AOA.xlsx
+++ b/BackTest/2020-01-14 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M191"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1393109</v>
       </c>
       <c r="G2" t="n">
+        <v>1.911666666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.913916666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>2846699.76</v>
       </c>
       <c r="G3" t="n">
+        <v>1.912733333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.914100000000001</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>167512.6522</v>
       </c>
       <c r="G4" t="n">
+        <v>1.9126</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.913983333333334</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>236644.0909</v>
       </c>
       <c r="G5" t="n">
+        <v>1.912399999999999</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.913583333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>329325.2233</v>
       </c>
       <c r="G6" t="n">
+        <v>1.910999999999999</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.91315</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>300</v>
       </c>
       <c r="G7" t="n">
+        <v>1.9096</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.912983333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>95425</v>
       </c>
       <c r="G8" t="n">
+        <v>1.908466666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.912866666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>2367840.0668</v>
       </c>
       <c r="G9" t="n">
+        <v>1.908533333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.91305</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>492279.2169</v>
       </c>
       <c r="G10" t="n">
+        <v>1.9086</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.912983333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1478717.88</v>
       </c>
       <c r="G11" t="n">
+        <v>1.9072</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.912616666666666</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>3914450.88</v>
       </c>
       <c r="G12" t="n">
+        <v>1.9072</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.9128</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>3000417.88</v>
       </c>
       <c r="G13" t="n">
+        <v>1.906133333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.912433333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>222715</v>
       </c>
       <c r="G14" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.91235</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>3339866.88</v>
       </c>
       <c r="G15" t="n">
+        <v>1.906933333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.912266666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>2940886.88</v>
       </c>
       <c r="G16" t="n">
+        <v>1.907066666666666</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.912199999999999</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1863958.7134</v>
       </c>
       <c r="G17" t="n">
+        <v>1.907133333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.911833333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>339.4091</v>
       </c>
       <c r="G18" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.911733333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>59834.6772</v>
       </c>
       <c r="G19" t="n">
+        <v>1.906066666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.911366666666666</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>2712.4834</v>
       </c>
       <c r="G20" t="n">
+        <v>1.907066666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.911216666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>1043073.2502</v>
       </c>
       <c r="G21" t="n">
+        <v>1.907066666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.911049999999999</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>265</v>
       </c>
       <c r="G22" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.910599999999999</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>64478.0578</v>
       </c>
       <c r="G23" t="n">
+        <v>1.906533333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>1.910366666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>26692.1859</v>
       </c>
       <c r="G24" t="n">
+        <v>1.904733333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.910099999999999</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>203015.1284</v>
       </c>
       <c r="G25" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="H25" t="n">
         <v>1.909583333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>219580.2903</v>
       </c>
       <c r="G26" t="n">
+        <v>1.9022</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.908999999999999</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>38266.9435</v>
       </c>
       <c r="G27" t="n">
+        <v>1.900266666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>1.908349999999999</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>148148.8227</v>
       </c>
       <c r="G28" t="n">
+        <v>1.899733333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.908083333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>46938.7022</v>
       </c>
       <c r="G29" t="n">
+        <v>1.897266666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>1.9073</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>7162580.5994</v>
       </c>
       <c r="G30" t="n">
+        <v>1.894066666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>1.906083333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>32408.3203</v>
       </c>
       <c r="G31" t="n">
+        <v>1.8906</v>
+      </c>
+      <c r="H31" t="n">
         <v>1.9051</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>26925.1481</v>
       </c>
       <c r="G32" t="n">
+        <v>1.8876</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.9042</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>873057.2502</v>
       </c>
       <c r="G33" t="n">
+        <v>1.886533333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.903783333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>40340.1819</v>
       </c>
       <c r="G34" t="n">
+        <v>1.885466666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.903383333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>810.375</v>
       </c>
       <c r="G35" t="n">
+        <v>1.882466666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.902716666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>263798.3366</v>
       </c>
       <c r="G36" t="n">
+        <v>1.881733333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.902333333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>374640.8593</v>
       </c>
       <c r="G37" t="n">
+        <v>1.881066666666666</v>
+      </c>
+      <c r="H37" t="n">
         <v>1.90195</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>190146.3702</v>
       </c>
       <c r="G38" t="n">
+        <v>1.879466666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>1.901283333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>818732</v>
       </c>
       <c r="G39" t="n">
+        <v>1.878133333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>1.9005</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>18719.0254</v>
       </c>
       <c r="G40" t="n">
+        <v>1.876866666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>1.899916666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>1329.8701</v>
       </c>
       <c r="G41" t="n">
+        <v>1.875866666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>1.899333333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>94083.4133</v>
       </c>
       <c r="G42" t="n">
+        <v>1.8754</v>
+      </c>
+      <c r="H42" t="n">
         <v>1.898733333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>42337.2712</v>
       </c>
       <c r="G43" t="n">
+        <v>1.874666666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>1.898283333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>78971.4684</v>
       </c>
       <c r="G44" t="n">
+        <v>1.874666666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.89785</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>56402.4465</v>
       </c>
       <c r="G45" t="n">
+        <v>1.876266666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>1.897366666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>400000</v>
       </c>
       <c r="G46" t="n">
+        <v>1.878333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.896983333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>6108.8701</v>
       </c>
       <c r="G47" t="n">
+        <v>1.880066666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>1.896616666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>129177.2646</v>
       </c>
       <c r="G48" t="n">
+        <v>1.879466666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>1.896183333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>266</v>
       </c>
       <c r="G49" t="n">
+        <v>1.8794</v>
+      </c>
+      <c r="H49" t="n">
         <v>1.895883333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>152000</v>
       </c>
       <c r="G50" t="n">
+        <v>1.879466666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>1.89535</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>266</v>
       </c>
       <c r="G51" t="n">
+        <v>1.879333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>1.894783333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>156266.8524</v>
       </c>
       <c r="G52" t="n">
+        <v>1.878333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>1.894</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>266</v>
       </c>
       <c r="G53" t="n">
+        <v>1.879333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>1.89345</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>56249.70778779841</v>
       </c>
       <c r="G54" t="n">
+        <v>1.8802</v>
+      </c>
+      <c r="H54" t="n">
         <v>1.8929</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>12429.6103</v>
       </c>
       <c r="G55" t="n">
+        <v>1.880866666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>1.892333333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>159731.0988122016</v>
       </c>
       <c r="G56" t="n">
+        <v>1.881533333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>1.8917</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>70534.1841</v>
       </c>
       <c r="G57" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="H57" t="n">
         <v>1.891216666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>3119073.88</v>
       </c>
       <c r="G58" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="H58" t="n">
         <v>1.891133333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>3582513.0706</v>
       </c>
       <c r="G59" t="n">
+        <v>1.8846</v>
+      </c>
+      <c r="H59" t="n">
         <v>1.890883333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>1553280.88</v>
       </c>
       <c r="G60" t="n">
+        <v>1.8854</v>
+      </c>
+      <c r="H60" t="n">
         <v>1.890666666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>1070.7175</v>
       </c>
       <c r="G61" t="n">
+        <v>1.887266666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>1.890816666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>1000</v>
       </c>
       <c r="G62" t="n">
+        <v>1.889066666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>1.890966666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>634894</v>
       </c>
       <c r="G63" t="n">
+        <v>1.889466666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>1.890366666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>3379146.88</v>
       </c>
       <c r="G64" t="n">
+        <v>1.889333333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>1.890066666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>1875871.3004</v>
       </c>
       <c r="G65" t="n">
+        <v>1.8912</v>
+      </c>
+      <c r="H65" t="n">
         <v>1.89005</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>1255872</v>
       </c>
       <c r="G66" t="n">
+        <v>1.891066666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>1.8898</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>21208.085</v>
       </c>
       <c r="G67" t="n">
+        <v>1.892933333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>1.889833333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>2533403.0774</v>
       </c>
       <c r="G68" t="n">
+        <v>1.889933333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>1.888816666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>921721</v>
       </c>
       <c r="G69" t="n">
+        <v>1.890133333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>1.8883</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>3052887.41</v>
       </c>
       <c r="G70" t="n">
+        <v>1.887933333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>1.887166666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>2892441.88</v>
       </c>
       <c r="G71" t="n">
+        <v>1.886333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>1.886483333333334</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>2861643.8</v>
       </c>
       <c r="G72" t="n">
+        <v>1.8844</v>
+      </c>
+      <c r="H72" t="n">
         <v>1.885516666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>2815866.76</v>
       </c>
       <c r="G73" t="n">
+        <v>1.882733333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>1.885283333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,27 @@
         <v>1523982</v>
       </c>
       <c r="G74" t="n">
+        <v>1.8814</v>
+      </c>
+      <c r="H74" t="n">
         <v>1.884483333333334</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1.888</v>
+      </c>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3233,27 @@
         <v>123000</v>
       </c>
       <c r="G75" t="n">
+        <v>1.881266666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>1.88425</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1.871</v>
+      </c>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3277,27 @@
         <v>2859476.88</v>
       </c>
       <c r="G76" t="n">
+        <v>1.879266666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>1.883866666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1.889</v>
+      </c>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3321,25 @@
         <v>2927002.76</v>
       </c>
       <c r="G77" t="n">
+        <v>1.877333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>1.883516666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3363,25 @@
         <v>2067273.88</v>
       </c>
       <c r="G78" t="n">
+        <v>1.8772</v>
+      </c>
+      <c r="H78" t="n">
         <v>1.883166666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3405,25 @@
         <v>1679438.88</v>
       </c>
       <c r="G79" t="n">
+        <v>1.8792</v>
+      </c>
+      <c r="H79" t="n">
         <v>1.88335</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3447,25 @@
         <v>4216035</v>
       </c>
       <c r="G80" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="H80" t="n">
         <v>1.882783333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3489,25 @@
         <v>1365739.88</v>
       </c>
       <c r="G81" t="n">
+        <v>1.878533333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>1.882666666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3531,25 @@
         <v>21832.8574</v>
       </c>
       <c r="G82" t="n">
+        <v>1.877866666666666</v>
+      </c>
+      <c r="H82" t="n">
         <v>1.88255</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3573,25 @@
         <v>275219.7233</v>
       </c>
       <c r="G83" t="n">
+        <v>1.880133333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>1.882216666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3615,25 @@
         <v>2288073.88</v>
       </c>
       <c r="G84" t="n">
+        <v>1.879666666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>1.882033333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3657,25 @@
         <v>2964282.88</v>
       </c>
       <c r="G85" t="n">
+        <v>1.882733333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>1.8821</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3699,25 @@
         <v>2061212.88</v>
       </c>
       <c r="G86" t="n">
+        <v>1.884066666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>1.88195</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3741,25 @@
         <v>2888</v>
       </c>
       <c r="G87" t="n">
+        <v>1.886599999999999</v>
+      </c>
+      <c r="H87" t="n">
         <v>1.8821</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3783,25 @@
         <v>605218</v>
       </c>
       <c r="G88" t="n">
+        <v>1.886133333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>1.881883333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3825,25 @@
         <v>2933391.88</v>
       </c>
       <c r="G89" t="n">
+        <v>1.887933333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>1.88215</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3867,25 @@
         <v>3493278.88</v>
       </c>
       <c r="G90" t="n">
+        <v>1.8874</v>
+      </c>
+      <c r="H90" t="n">
         <v>1.882583333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3909,25 @@
         <v>666952.88</v>
       </c>
       <c r="G91" t="n">
+        <v>1.8874</v>
+      </c>
+      <c r="H91" t="n">
         <v>1.883066666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3951,25 @@
         <v>768113</v>
       </c>
       <c r="G92" t="n">
+        <v>1.8874</v>
+      </c>
+      <c r="H92" t="n">
         <v>1.883466666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3993,25 @@
         <v>3033659.88</v>
       </c>
       <c r="G93" t="n">
+        <v>1.888533333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>1.883666666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4035,25 @@
         <v>3186719.88</v>
       </c>
       <c r="G94" t="n">
+        <v>1.8864</v>
+      </c>
+      <c r="H94" t="n">
         <v>1.883583333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4077,25 @@
         <v>4245.7468</v>
       </c>
       <c r="G95" t="n">
+        <v>1.8876</v>
+      </c>
+      <c r="H95" t="n">
         <v>1.884066666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4119,25 @@
         <v>222840</v>
       </c>
       <c r="G96" t="n">
+        <v>1.888066666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>1.88425</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4161,25 @@
         <v>3368479.88</v>
       </c>
       <c r="G97" t="n">
+        <v>1.887466666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>1.88415</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4203,25 @@
         <v>3079326.76</v>
       </c>
       <c r="G98" t="n">
+        <v>1.889066666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>1.884616666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4245,25 @@
         <v>644997</v>
       </c>
       <c r="G99" t="n">
+        <v>1.889066666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>1.884766666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4287,25 @@
         <v>95629.4308</v>
       </c>
       <c r="G100" t="n">
+        <v>1.889133333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>1.885166666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4329,25 @@
         <v>150570.1552</v>
       </c>
       <c r="G101" t="n">
+        <v>1.890333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>1.885566666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4371,25 @@
         <v>1546777</v>
       </c>
       <c r="G102" t="n">
+        <v>1.889133333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>1.885533333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4413,25 @@
         <v>3228706.88</v>
       </c>
       <c r="G103" t="n">
+        <v>1.890333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>1.8858</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4455,25 @@
         <v>2756442.76</v>
       </c>
       <c r="G104" t="n">
+        <v>1.8904</v>
+      </c>
+      <c r="H104" t="n">
         <v>1.886083333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4497,25 @@
         <v>499526</v>
       </c>
       <c r="G105" t="n">
+        <v>1.8904</v>
+      </c>
+      <c r="H105" t="n">
         <v>1.886116666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4539,25 @@
         <v>72127.00440000001</v>
       </c>
       <c r="G106" t="n">
+        <v>1.891666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>1.8864</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4581,25 @@
         <v>43726.09</v>
       </c>
       <c r="G107" t="n">
+        <v>1.892933333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>1.886683333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4623,25 @@
         <v>3134240</v>
       </c>
       <c r="G108" t="n">
+        <v>1.891333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>1.886633333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4665,25 @@
         <v>3386033.88</v>
       </c>
       <c r="G109" t="n">
+        <v>1.892533333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>1.886866666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4707,25 @@
         <v>1248840</v>
       </c>
       <c r="G110" t="n">
+        <v>1.890866666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>1.886916666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4749,25 @@
         <v>25254.8274</v>
       </c>
       <c r="G111" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="H111" t="n">
         <v>1.887166666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4791,25 @@
         <v>50651.4219</v>
       </c>
       <c r="G112" t="n">
+        <v>1.893133333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>1.88785</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4833,25 @@
         <v>35288.2826</v>
       </c>
       <c r="G113" t="n">
+        <v>1.8936</v>
+      </c>
+      <c r="H113" t="n">
         <v>1.888183333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4875,25 @@
         <v>399.6681</v>
       </c>
       <c r="G114" t="n">
+        <v>1.8952</v>
+      </c>
+      <c r="H114" t="n">
         <v>1.888516666666666</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4917,25 @@
         <v>1898131.2932</v>
       </c>
       <c r="G115" t="n">
+        <v>1.8952</v>
+      </c>
+      <c r="H115" t="n">
         <v>1.888749999999999</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4959,25 @@
         <v>3258082.88</v>
       </c>
       <c r="G116" t="n">
+        <v>1.8952</v>
+      </c>
+      <c r="H116" t="n">
         <v>1.888983333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +5001,25 @@
         <v>2879031.4833</v>
       </c>
       <c r="G117" t="n">
+        <v>1.894666666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>1.8887</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5043,25 @@
         <v>241942.8099</v>
       </c>
       <c r="G118" t="n">
+        <v>1.891533333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>1.887683333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5085,25 @@
         <v>1539114.4772</v>
       </c>
       <c r="G119" t="n">
+        <v>1.889066666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>1.8872</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5127,25 @@
         <v>3059525.88</v>
       </c>
       <c r="G120" t="n">
+        <v>1.889933333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>1.887249999999999</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5169,25 @@
         <v>2919445.76</v>
       </c>
       <c r="G121" t="n">
+        <v>1.889533333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>1.886966666666666</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5211,25 @@
         <v>508402.9619</v>
       </c>
       <c r="G122" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="H122" t="n">
         <v>1.886166666666666</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,22 +5253,25 @@
         <v>1405523.88</v>
       </c>
       <c r="G123" t="n">
+        <v>1.886266666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>1.885833333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K123" t="n">
-        <v>1.862</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4722,24 +5295,25 @@
         <v>819642</v>
       </c>
       <c r="G124" t="n">
+        <v>1.883866666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>1.8855</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4763,24 +5337,25 @@
         <v>2890846.95</v>
       </c>
       <c r="G125" t="n">
+        <v>1.883133333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>1.8849</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,26 +5379,25 @@
         <v>2367012.88</v>
       </c>
       <c r="G126" t="n">
+        <v>1.880666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>1.884566666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="K126" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4847,24 +5421,25 @@
         <v>129721.4895</v>
       </c>
       <c r="G127" t="n">
+        <v>1.8772</v>
+      </c>
+      <c r="H127" t="n">
         <v>1.883916666666666</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4888,26 +5463,25 @@
         <v>270000</v>
       </c>
       <c r="G128" t="n">
+        <v>1.874333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>1.884283333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="K128" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4931,24 +5505,25 @@
         <v>687.7996000000001</v>
       </c>
       <c r="G129" t="n">
+        <v>1.8716</v>
+      </c>
+      <c r="H129" t="n">
         <v>1.883883333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4972,26 +5547,27 @@
         <v>1398682.6121</v>
       </c>
       <c r="G130" t="n">
+        <v>1.869266666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>1.884083333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
         <v>1.864</v>
       </c>
-      <c r="K130" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5015,24 +5591,27 @@
         <v>3748651.0649</v>
       </c>
       <c r="G131" t="n">
+        <v>1.8668</v>
+      </c>
+      <c r="H131" t="n">
         <v>1.884099999999999</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+        <v>1.864</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5056,26 +5635,27 @@
         <v>160952.217</v>
       </c>
       <c r="G132" t="n">
+        <v>1.8662</v>
+      </c>
+      <c r="H132" t="n">
         <v>1.884149999999999</v>
       </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>1.862</v>
+        <v>0</v>
       </c>
       <c r="K132" t="n">
         <v>1.862</v>
       </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5099,24 +5679,27 @@
         <v>5399.2462</v>
       </c>
       <c r="G133" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="H133" t="n">
         <v>1.883749999999999</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+        <v>1.864</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,26 +5723,27 @@
         <v>180292</v>
       </c>
       <c r="G134" t="n">
+        <v>1.867133333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>1.883633333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
         <v>1.864</v>
       </c>
-      <c r="K134" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5183,24 +5767,27 @@
         <v>1936.0278</v>
       </c>
       <c r="G135" t="n">
+        <v>1.866066666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>1.88345</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+        <v>1.864</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,26 +5811,25 @@
         <v>77307.7968</v>
       </c>
       <c r="G136" t="n">
+        <v>1.865133333333334</v>
+      </c>
+      <c r="H136" t="n">
         <v>1.883433333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K136" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5267,24 +5853,25 @@
         <v>3501106.88</v>
       </c>
       <c r="G137" t="n">
+        <v>1.865800000000001</v>
+      </c>
+      <c r="H137" t="n">
         <v>1.883283333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5308,24 +5895,25 @@
         <v>2857105.76</v>
       </c>
       <c r="G138" t="n">
+        <v>1.867733333333334</v>
+      </c>
+      <c r="H138" t="n">
         <v>1.883466666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5349,24 +5937,25 @@
         <v>683529</v>
       </c>
       <c r="G139" t="n">
+        <v>1.868466666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>1.882816666666666</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5390,24 +5979,25 @@
         <v>265</v>
       </c>
       <c r="G140" t="n">
+        <v>1.870466666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>1.883016666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5431,24 +6021,25 @@
         <v>799384</v>
       </c>
       <c r="G141" t="n">
+        <v>1.871200000000001</v>
+      </c>
+      <c r="H141" t="n">
         <v>1.882733333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5472,24 +6063,25 @@
         <v>3718784.88</v>
       </c>
       <c r="G142" t="n">
+        <v>1.872066666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>1.882466666666666</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5513,24 +6105,25 @@
         <v>2893477.88</v>
       </c>
       <c r="G143" t="n">
+        <v>1.872866666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>1.882466666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5554,24 +6147,25 @@
         <v>253640</v>
       </c>
       <c r="G144" t="n">
+        <v>1.874733333333334</v>
+      </c>
+      <c r="H144" t="n">
         <v>1.882649999999999</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5595,24 +6189,25 @@
         <v>3584749.88</v>
       </c>
       <c r="G145" t="n">
+        <v>1.875466666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>1.882266666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5636,24 +6231,25 @@
         <v>2144260.9112</v>
       </c>
       <c r="G146" t="n">
+        <v>1.877333333333334</v>
+      </c>
+      <c r="H146" t="n">
         <v>1.882416666666666</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5677,24 +6273,25 @@
         <v>105888.3743</v>
       </c>
       <c r="G147" t="n">
+        <v>1.879066666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>1.882266666666666</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5718,24 +6315,25 @@
         <v>112222.6349</v>
       </c>
       <c r="G148" t="n">
+        <v>1.880733333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>1.882399999999999</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5759,24 +6357,25 @@
         <v>151090.2176</v>
       </c>
       <c r="G149" t="n">
+        <v>1.8824</v>
+      </c>
+      <c r="H149" t="n">
         <v>1.882249999999999</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5800,24 +6399,25 @@
         <v>75996.2153</v>
       </c>
       <c r="G150" t="n">
+        <v>1.882533333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>1.882233333333332</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5841,24 +6441,27 @@
         <v>1800</v>
       </c>
       <c r="G151" t="n">
+        <v>1.883133333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>1.882366666666666</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5882,24 +6485,25 @@
         <v>1500</v>
       </c>
       <c r="G152" t="n">
+        <v>1.884266666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>1.882499999999999</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5923,24 +6527,25 @@
         <v>4776.3861</v>
       </c>
       <c r="G153" t="n">
+        <v>1.884066666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>1.882349999999999</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5964,24 +6569,25 @@
         <v>839.7912</v>
       </c>
       <c r="G154" t="n">
+        <v>1.885066666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>1.882483333333332</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6005,24 +6611,25 @@
         <v>739.6761</v>
       </c>
       <c r="G155" t="n">
+        <v>1.8848</v>
+      </c>
+      <c r="H155" t="n">
         <v>1.882316666666665</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6046,24 +6653,25 @@
         <v>390.3436</v>
       </c>
       <c r="G156" t="n">
+        <v>1.8858</v>
+      </c>
+      <c r="H156" t="n">
         <v>1.882166666666665</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6087,24 +6695,27 @@
         <v>132641.2381</v>
       </c>
       <c r="G157" t="n">
+        <v>1.886866666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>1.882316666666665</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6128,24 +6739,25 @@
         <v>1835.9575</v>
       </c>
       <c r="G158" t="n">
+        <v>1.887733333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>1.882133333333332</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6169,24 +6781,25 @@
         <v>110168.3699</v>
       </c>
       <c r="G159" t="n">
+        <v>1.886933333333334</v>
+      </c>
+      <c r="H159" t="n">
         <v>1.882116666666665</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6210,24 +6823,25 @@
         <v>25677.8496</v>
       </c>
       <c r="G160" t="n">
+        <v>1.886933333333334</v>
+      </c>
+      <c r="H160" t="n">
         <v>1.881716666666665</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6251,24 +6865,27 @@
         <v>92031.7325</v>
       </c>
       <c r="G161" t="n">
+        <v>1.885866666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>1.881299999999999</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6292,24 +6909,27 @@
         <v>3164.0425</v>
       </c>
       <c r="G162" t="n">
+        <v>1.885666666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>1.881399999999999</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6333,24 +6953,27 @@
         <v>265</v>
       </c>
       <c r="G163" t="n">
+        <v>1.885733333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>1.881249999999999</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6374,24 +6997,25 @@
         <v>1301.3106</v>
       </c>
       <c r="G164" t="n">
+        <v>1.885133333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>1.880933333333332</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,24 +7039,25 @@
         <v>108832.5751</v>
       </c>
       <c r="G165" t="n">
+        <v>1.8858</v>
+      </c>
+      <c r="H165" t="n">
         <v>1.881083333333332</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6456,24 +7081,25 @@
         <v>5000</v>
       </c>
       <c r="G166" t="n">
+        <v>1.8852</v>
+      </c>
+      <c r="H166" t="n">
         <v>1.880749999999998</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6497,24 +7123,25 @@
         <v>265</v>
       </c>
       <c r="G167" t="n">
+        <v>1.885266666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>1.880583333333331</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,24 +7165,25 @@
         <v>48995.1898</v>
       </c>
       <c r="G168" t="n">
+        <v>1.884666666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>1.880683333333331</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6579,24 +7207,25 @@
         <v>265</v>
       </c>
       <c r="G169" t="n">
+        <v>1.884733333333334</v>
+      </c>
+      <c r="H169" t="n">
         <v>1.880533333333332</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6620,24 +7249,25 @@
         <v>408777.4785</v>
       </c>
       <c r="G170" t="n">
+        <v>1.8848</v>
+      </c>
+      <c r="H170" t="n">
         <v>1.880799999999998</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6661,24 +7291,27 @@
         <v>47716.3901</v>
       </c>
       <c r="G171" t="n">
+        <v>1.885133333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>1.880699999999998</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6702,24 +7335,27 @@
         <v>187662.3727</v>
       </c>
       <c r="G172" t="n">
+        <v>1.8854</v>
+      </c>
+      <c r="H172" t="n">
         <v>1.880383333333332</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6743,24 +7379,27 @@
         <v>443215.1881</v>
       </c>
       <c r="G173" t="n">
+        <v>1.886066666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>1.880249999999999</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6784,24 +7423,27 @@
         <v>2586.0153</v>
       </c>
       <c r="G174" t="n">
+        <v>1.8872</v>
+      </c>
+      <c r="H174" t="n">
         <v>1.880116666666665</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6825,24 +7467,27 @@
         <v>189490.7605</v>
       </c>
       <c r="G175" t="n">
+        <v>1.888666666666666</v>
+      </c>
+      <c r="H175" t="n">
         <v>1.880083333333332</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6866,24 +7511,25 @@
         <v>21874.2646</v>
       </c>
       <c r="G176" t="n">
+        <v>1.891066666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>1.880266666666665</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6907,24 +7553,25 @@
         <v>11965.5831</v>
       </c>
       <c r="G177" t="n">
+        <v>1.892666666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>1.880899999999998</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6948,25 +7595,26 @@
         <v>30671.2883</v>
       </c>
       <c r="G178" t="n">
+        <v>1.893333333333333</v>
+      </c>
+      <c r="H178" t="n">
         <v>1.881699999999999</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1.015408163265306</v>
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -6989,18 +7637,25 @@
         <v>1687.5138</v>
       </c>
       <c r="G179" t="n">
+        <v>1.894666666666666</v>
+      </c>
+      <c r="H179" t="n">
         <v>1.882333333333332</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7024,18 +7679,25 @@
         <v>124316.9437</v>
       </c>
       <c r="G180" t="n">
+        <v>1.896066666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>1.882616666666665</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7059,18 +7721,25 @@
         <v>2984.7018</v>
       </c>
       <c r="G181" t="n">
+        <v>1.898066666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>1.882883333333332</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7094,18 +7763,25 @@
         <v>130499.3819</v>
       </c>
       <c r="G182" t="n">
+        <v>1.899066666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>1.883599999999999</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,18 +7805,25 @@
         <v>2127.0079</v>
       </c>
       <c r="G183" t="n">
+        <v>1.900733333333334</v>
+      </c>
+      <c r="H183" t="n">
         <v>1.884299999999999</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7164,18 +7847,25 @@
         <v>53443.4511</v>
       </c>
       <c r="G184" t="n">
+        <v>1.901266666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>1.884883333333332</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7199,18 +7889,25 @@
         <v>5000</v>
       </c>
       <c r="G185" t="n">
+        <v>1.9018</v>
+      </c>
+      <c r="H185" t="n">
         <v>1.885466666666665</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7234,18 +7931,25 @@
         <v>270</v>
       </c>
       <c r="G186" t="n">
+        <v>1.902466666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>1.886149999999998</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7269,18 +7973,25 @@
         <v>90678.788</v>
       </c>
       <c r="G187" t="n">
+        <v>1.902733333333334</v>
+      </c>
+      <c r="H187" t="n">
         <v>1.886766666666665</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7304,18 +8015,25 @@
         <v>13397.6183</v>
       </c>
       <c r="G188" t="n">
+        <v>1.902733333333334</v>
+      </c>
+      <c r="H188" t="n">
         <v>1.887349999999999</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7339,18 +8057,27 @@
         <v>6939.479</v>
       </c>
       <c r="G189" t="n">
+        <v>1.9032</v>
+      </c>
+      <c r="H189" t="n">
         <v>1.888016666666665</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1.897</v>
+      </c>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7374,18 +8101,25 @@
         <v>3151.260504201681</v>
       </c>
       <c r="G190" t="n">
+        <v>1.903666666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>1.888683333333332</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7409,18 +8143,439 @@
         <v>330758.7015</v>
       </c>
       <c r="G191" t="n">
+        <v>1.9032</v>
+      </c>
+      <c r="H191" t="n">
         <v>1.889366666666665</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1273445.0878</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1.9028</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1.890049999999998</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="F193" t="n">
+        <v>86000</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1.901866666666667</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1.890416666666665</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="F194" t="n">
+        <v>856.7234999999999</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1.900933333333334</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1.890783333333331</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="F195" t="n">
+        <v>690.9759</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1.900533333333334</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1.891233333333332</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1283995.88</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1.900133333333334</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1.891633333333332</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3402453.88</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1.898933333333334</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1.891883333333332</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2317868.88</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1.897733333333334</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1.891799999999998</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3256616.88</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1.898133333333334</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1.892299999999998</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="F200" t="n">
+        <v>3697521.88</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1.897466666666667</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1.892216666666665</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F201" t="n">
+        <v>763098.88</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1.896466666666667</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1.892466666666665</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-14 BackTest AOA.xlsx
+++ b/BackTest/2020-01-14 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N259"/>
+  <dimension ref="A1:M259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>3221539.307499999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>4009260.187499999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>4009260.187499999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>2980987.187499999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>171855.1874999991</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>1140509.067499999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-2341833.682629871</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>91019.19737012871</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-1993378.682629871</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-3090822.682629871</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-3090822.682629871</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-2986926.578733767</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-240702.6398337674</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-2208124.494432004</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-3922362.374432004</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-7302891.254432004</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-7302891.254432004</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-7302891.254432004</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>-8261998.205010379</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>-9625693.00131038</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>-9477544.178610381</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>-9524482.88081038</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3289,15 @@
         <v>-16687063.48021038</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>-16719471.80051038</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>-16692546.65241038</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>-15819489.40221038</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7812,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8520,18 +7843,19 @@
         <v>-25372020.70451039</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
+        <v>1.89</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1.89</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8556,18 +7880,23 @@
         <v>-25371755.70451039</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+        <v>1.88</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8592,18 +7921,23 @@
         <v>-25371755.70451039</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+        <v>1.89</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8628,18 +7962,23 @@
         <v>-25324039.31441039</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+        <v>1.89</v>
+      </c>
+      <c r="J229" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8664,18 +8003,23 @@
         <v>-25324039.31441039</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+        <v>1.894</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8700,18 +8044,23 @@
         <v>-24880824.12631039</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+        <v>1.894</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8087,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8126,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8808,18 +8163,23 @@
         <v>-24858949.86171039</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+        <v>1.897</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8206,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8245,19 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8284,19 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8323,19 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8362,19 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8401,19 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9060,22 +8438,21 @@
         <v>-24886822.70691039</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="K241" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+        <v>1.89</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9102,22 +8479,19 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="L242" t="inlineStr">
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K242" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9142,26 +8516,21 @@
         <v>-24940266.15801039</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="K243" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="L243" t="inlineStr">
+        <v>1.89</v>
+      </c>
+      <c r="K243" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9186,22 +8555,21 @@
         <v>-24939996.15801039</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="K244" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+        <v>1.89</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9226,26 +8594,21 @@
         <v>-25030674.94601039</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="K245" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="L245" t="inlineStr">
+        <v>1.89</v>
+      </c>
+      <c r="K245" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9272,22 +8635,19 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="L246" t="inlineStr">
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K246" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9312,22 +8672,21 @@
         <v>-25037133.08531039</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="K247" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+        <v>1.89</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9354,22 +8713,19 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="L248" t="inlineStr">
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K248" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9396,22 +8752,19 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="L249" t="inlineStr">
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K249" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9438,22 +8791,19 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="L250" t="inlineStr">
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9480,22 +8830,19 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="L251" t="inlineStr">
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9520,26 +8867,21 @@
         <v>-24180446.69901039</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K252" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="L252" t="inlineStr">
+        <v>1.89</v>
+      </c>
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9564,26 +8906,21 @@
         <v>-24179755.72311039</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K253" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="L253" t="inlineStr">
+        <v>1.89</v>
+      </c>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9610,22 +8947,19 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="L254" t="inlineStr">
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9652,22 +8986,19 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="L255" t="inlineStr">
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9692,26 +9023,21 @@
         <v>-28866205.48311038</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="K256" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="L256" t="inlineStr">
+        <v>1.89</v>
+      </c>
+      <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9736,26 +9062,21 @@
         <v>-25609588.60311038</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="K257" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="L257" t="inlineStr">
+        <v>1.89</v>
+      </c>
+      <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9780,26 +9101,21 @@
         <v>-29307110.48311038</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="K258" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="L258" t="inlineStr">
+        <v>1.89</v>
+      </c>
+      <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9824,28 +9140,23 @@
         <v>-28544011.60311038</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="K259" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="L259" t="inlineStr">
+        <v>1.89</v>
+      </c>
+      <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest AOA.xlsx
+++ b/BackTest/2020-01-14 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1572814.427499999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>3221539.307499999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>3221539.307499999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>3221539.307499999</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>4009260.187499999</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>4009260.187499999</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>2980987.187499999</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>3618885.067499999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>3618885.067499999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>171855.1874999991</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>171855.1874999991</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1140509.067499999</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2341833.682629871</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>91019.19737012871</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>91019.19737012871</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1993378.682629871</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>200907.1973701287</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-3090822.682629871</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-3090822.682629871</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2986926.578733767</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2986926.578733767</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-240702.6398337674</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-3590470.519833767</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2208124.494432004</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3922362.374432004</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-7302891.254432004</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-7302891.254432004</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-7302891.254432004</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-7812292.664032004</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-7812292.664032004</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-7812292.664032004</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-7812292.664032004</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-7812292.664032004</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-7812022.664032004</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-7920278.590132004</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-7920278.590132004</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-7816023.551153629</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-8349623.113253629</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-8377293.374653629</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-8377293.374653629</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-8943356.978153629</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-9068137.52045363</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-9445823.61675363</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-9445823.61675363</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-9445823.61675363</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-9445561.61675363</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-9445561.61675363</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-9446561.61675363</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-9446561.61675363</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-9297236.883432005</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-9197236.883432005</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-9499636.019110378</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-9545773.662510378</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-9546779.018910378</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-9547784.514610378</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-9548076.312810378</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-10941185.31281038</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-8094485.552810378</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-8261998.205010379</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-8498642.295910379</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-8827967.51921038</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-8827967.51921038</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-8732542.51921038</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-6364702.452410379</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-5872423.235510379</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-7351141.115510379</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-3436690.235510379</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-6437108.115510379</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-6214393.115510379</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-9554259.995510379</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-6613373.115510379</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-8477331.828910379</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-8477331.828910379</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-8477331.828910379</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-8474619.345510378</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-9517692.595710378</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-9517957.595710378</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-9625693.00131038</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-9625693.00131038</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-9477544.178610381</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-9524482.88081038</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-16687063.48021038</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-16719471.80051038</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-16692546.65241038</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-15819489.40221038</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -7843,14 +7843,10 @@
         <v>-25372020.70451039</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J226" t="n">
-        <v>1.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
@@ -7880,731 +7876,615 @@
         <v>-25371755.70451039</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="C228" t="n">
         <v>1.89</v>
       </c>
-      <c r="K227" t="inlineStr">
+      <c r="D228" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F228" t="n">
+        <v>408777.4785</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-25371755.70451039</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F229" t="n">
+        <v>47716.3901</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-25324039.31441039</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="F230" t="n">
+        <v>187662.3727</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-25324039.31441039</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F231" t="n">
+        <v>443215.1881</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-24880824.12631039</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="F232" t="n">
+        <v>2586.0153</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-24880824.12631039</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="F233" t="n">
+        <v>189490.7605</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-24880824.12631039</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="F234" t="n">
+        <v>21874.2646</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-24858949.86171039</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="F235" t="n">
+        <v>11965.5831</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-24846984.27861039</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F236" t="n">
+        <v>30671.2883</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-24877655.56691039</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1687.5138</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-24877655.56691039</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F238" t="n">
+        <v>124316.9437</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-24753338.62321039</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2984.7018</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-24756323.32501039</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F240" t="n">
+        <v>130499.3819</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-24886822.70691039</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="F241" t="n">
+        <v>2127.0079</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-24886822.70691039</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F242" t="n">
+        <v>53443.4511</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-24940266.15801039</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F243" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-24940266.15801039</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="F244" t="n">
+        <v>270</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-24939996.15801039</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F245" t="n">
+        <v>90678.788</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-25030674.94601039</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="K245" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="C228" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D228" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E228" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="F228" t="n">
-        <v>408777.4785</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-25371755.70451039</v>
-      </c>
-      <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J228" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D229" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E229" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="F229" t="n">
-        <v>47716.3901</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-25324039.31441039</v>
-      </c>
-      <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J229" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="C230" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D230" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E230" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="F230" t="n">
-        <v>187662.3727</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-25324039.31441039</v>
-      </c>
-      <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="J230" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C231" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="D231" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="E231" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F231" t="n">
-        <v>443215.1881</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-24880824.12631039</v>
-      </c>
-      <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="J231" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="C232" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="D232" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="E232" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="F232" t="n">
-        <v>2586.0153</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-24880824.12631039</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="C233" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="D233" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="E233" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="F233" t="n">
-        <v>189490.7605</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-24880824.12631039</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="C234" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D234" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E234" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="F234" t="n">
-        <v>21874.2646</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-24858949.86171039</v>
-      </c>
-      <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="J234" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="C235" t="n">
-        <v>1.911</v>
-      </c>
-      <c r="D235" t="n">
-        <v>1.911</v>
-      </c>
-      <c r="E235" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="F235" t="n">
-        <v>11965.5831</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-24846984.27861039</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C236" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D236" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E236" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F236" t="n">
-        <v>30671.2883</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-24877655.56691039</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C237" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D237" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E237" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F237" t="n">
-        <v>1687.5138</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-24877655.56691039</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C238" t="n">
-        <v>1.911</v>
-      </c>
-      <c r="D238" t="n">
-        <v>1.911</v>
-      </c>
-      <c r="E238" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F238" t="n">
-        <v>124316.9437</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-24753338.62321039</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C239" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D239" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E239" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F239" t="n">
-        <v>2984.7018</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-24756323.32501039</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C240" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="D240" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="E240" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F240" t="n">
-        <v>130499.3819</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-24886822.70691039</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="C241" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="D241" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="E241" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="F241" t="n">
-        <v>2127.0079</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-24886822.70691039</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="C242" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="D242" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="E242" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="F242" t="n">
-        <v>53443.4511</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-24940266.15801039</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="C243" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="D243" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="E243" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="F243" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-24940266.15801039</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="C244" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="D244" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="E244" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="F244" t="n">
-        <v>270</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-24939996.15801039</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="C245" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="D245" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="E245" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="F245" t="n">
-        <v>90678.788</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-25030674.94601039</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8633,15 +8513,17 @@
         <v>-25044072.56431039</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1.898</v>
+      </c>
       <c r="J246" t="n">
-        <v>1.89</v>
+        <v>1.898</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L246" t="n">
@@ -8675,14 +8557,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8714,14 +8590,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8753,14 +8623,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8792,14 +8656,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8831,14 +8689,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8867,17 +8719,15 @@
         <v>-24180446.69901039</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1.886</v>
+      </c>
       <c r="J252" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1.886</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8906,15 +8756,17 @@
         <v>-24179755.72311039</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>1.886</v>
+      </c>
       <c r="J253" t="n">
-        <v>1.89</v>
+        <v>1.886</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L253" t="n">
@@ -8945,15 +8797,17 @@
         <v>-25463751.60311038</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1.905</v>
+      </c>
       <c r="J254" t="n">
-        <v>1.89</v>
+        <v>1.886</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L254" t="n">
@@ -8987,14 +8841,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9026,14 +8874,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9062,17 +8904,15 @@
         <v>-25609588.60311038</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>1.887</v>
+      </c>
       <c r="J257" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1.887</v>
+      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9101,15 +8941,17 @@
         <v>-29307110.48311038</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>1.904</v>
+      </c>
       <c r="J258" t="n">
-        <v>1.89</v>
+        <v>1.887</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L258" t="n">
@@ -9140,15 +8982,17 @@
         <v>-28544011.60311038</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1.888</v>
+      </c>
       <c r="J259" t="n">
-        <v>1.89</v>
+        <v>1.887</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L259" t="n">
@@ -9157,6 +9001,6 @@
       <c r="M259" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest AOA.xlsx
+++ b/BackTest/2020-01-14 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1572814.427499999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>3221539.307499999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>3221539.307499999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>3221539.307499999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>4009260.187499999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>4009260.187499999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>2980987.187499999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>3618885.067499999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>3618885.067499999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>171855.1874999991</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>171855.1874999991</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1140509.067499999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2341833.682629871</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>91019.19737012871</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>91019.19737012871</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1993378.682629871</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>200907.1973701287</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-3090822.682629871</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-3090822.682629871</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2986926.578733767</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2986926.578733767</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-240702.6398337674</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-3590470.519833767</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2208124.494432004</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3922362.374432004</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-7302891.254432004</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-7302891.254432004</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-7302891.254432004</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-7812292.664032004</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-7812292.664032004</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-7812292.664032004</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-7812292.664032004</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-7812292.664032004</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-7812022.664032004</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-7920278.590132004</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-7920278.590132004</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-7816023.551153629</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-8349623.113253629</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-8377293.374653629</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-8377293.374653629</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-8943356.978153629</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-9068137.52045363</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-9445823.61675363</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-9445823.61675363</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-9445823.61675363</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-9445561.61675363</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-9445561.61675363</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-9446561.61675363</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-9446561.61675363</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-9297236.883432005</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-9197236.883432005</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-9499636.019110378</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-9545773.662510378</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-9546779.018910378</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-9547784.514610378</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-9548076.312810378</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-10941185.31281038</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-8094485.552810378</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-8261998.205010379</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-8498642.295910379</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-8827967.51921038</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-8827967.51921038</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-8732542.51921038</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-6364702.452410379</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-5872423.235510379</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-7351141.115510379</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-3436690.235510379</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-6437108.115510379</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-6214393.115510379</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-9554259.995510379</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-6613373.115510379</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-8477331.828910379</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-8477331.828910379</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-8477331.828910379</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-8474619.345510378</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-9517692.595710378</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-9517957.595710378</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-9625693.00131038</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-9477544.178610381</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-18029355.97571038</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-14995696.09571038</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-18182415.97571038</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-18178170.22891038</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-19239530.91811038</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-19239530.91811038</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-20786307.91811038</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-17557601.03811038</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-17557601.03811038</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-18057127.03811038</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-24846984.27861039</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-24877655.56691039</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-24877655.56691039</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-24753338.62321039</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8437,14 +8437,10 @@
         <v>-24939996.15801039</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="J244" t="n">
-        <v>1.898</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
@@ -8477,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8513,19 +8503,11 @@
         <v>-25044072.56431039</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="J246" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8719,14 +8701,10 @@
         <v>-24180446.69901039</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="J252" t="n">
-        <v>1.886</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
@@ -8764,11 +8742,7 @@
       <c r="J253" t="n">
         <v>1.886</v>
       </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8797,11 +8771,9 @@
         <v>-25463751.60311038</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>1.905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
         <v>1.886</v>
       </c>
@@ -8841,8 +8813,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8982,11 +8960,9 @@
         <v>-28544011.60311038</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>1.888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
         <v>1.887</v>
       </c>
@@ -9001,6 +8977,6 @@
       <c r="M259" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest AOA.xlsx
+++ b/BackTest/2020-01-14 BackTest AOA.xlsx
@@ -451,7 +451,7 @@
         <v>1572814.427499999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>4432477.187499999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>4432477.187499999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>3221539.307499999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>3221539.307499999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>3221539.307499999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>4009260.187499999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>4009260.187499999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>2980987.187499999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>3618885.067499999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>3618885.067499999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>171855.1874999991</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>171855.1874999991</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1140509.067499999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2341833.682629871</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>91019.19737012871</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>91019.19737012871</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1993378.682629871</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>200907.1973701287</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-3090822.682629871</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-3090822.682629871</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2986926.578733767</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2986926.578733767</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-240702.6398337674</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-3590470.519833767</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2208124.494432004</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3922362.374432004</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-7302891.254432004</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-7302891.254432004</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-7302891.254432004</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-7812292.664032004</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-7812292.664032004</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-7812292.664032004</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-7812292.664032004</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-7812022.664032004</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-7920278.590132004</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-7920278.590132004</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-8349623.113253629</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-8377293.374653629</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-8377293.374653629</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-8943356.978153629</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-9068137.52045363</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-9445823.61675363</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-9445561.61675363</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-9446561.61675363</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-9446561.61675363</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-9297236.883432005</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-9499636.019110378</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-9546779.018910378</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-9547784.514610378</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-9554259.995510379</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-18029355.97571038</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-14995696.09571038</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-18182415.97571038</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-18178170.22891038</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-19239530.91811038</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-19239530.91811038</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-20786307.91811038</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-17557601.03811038</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-17557601.03811038</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-18057127.03811038</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -7975,11 +7975,17 @@
         <v>-25324039.31441039</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1.894</v>
+      </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8018,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8055,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8092,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +8125,17 @@
         <v>-24858949.86171039</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1.897</v>
+      </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8164,15 @@
         <v>-24846984.27861039</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +8201,15 @@
         <v>-24877655.56691039</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8238,15 @@
         <v>-24877655.56691039</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8275,17 @@
         <v>-24753338.62321039</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1.9</v>
+      </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8314,17 @@
         <v>-24756323.32501039</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1.911</v>
+      </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +8353,17 @@
         <v>-24886822.70691039</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1.91</v>
+      </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8392,17 @@
         <v>-24886822.70691039</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1.905</v>
+      </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8431,17 @@
         <v>-24940266.15801039</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1.905</v>
+      </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8470,17 @@
         <v>-24940266.15801039</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1.898</v>
+      </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8509,17 @@
         <v>-24939996.15801039</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1.898</v>
+      </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +8548,17 @@
         <v>-25030674.94601039</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>1.904</v>
+      </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +8587,17 @@
         <v>-25044072.56431039</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1.898</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +8626,17 @@
         <v>-25037133.08531039</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>1.897</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8665,17 @@
         <v>-25037133.08531039</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>1.904</v>
+      </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +8704,17 @@
         <v>-25367891.78681039</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>1.904</v>
+      </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8743,17 @@
         <v>-24094446.69901039</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>1.903</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +8782,17 @@
         <v>-24180446.69901039</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>1.905</v>
+      </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +8821,17 @@
         <v>-24180446.69901039</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1.886</v>
+      </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8739,10 +8865,12 @@
       <c r="I253" t="n">
         <v>1.886</v>
       </c>
-      <c r="J253" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,15 +8899,15 @@
         <v>-25463751.60311038</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>1.886</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L254" t="n">
@@ -8810,15 +8938,15 @@
         <v>-28866205.48311038</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>1.886</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L255" t="n">
@@ -8849,11 +8977,17 @@
         <v>-28866205.48311038</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>1.887</v>
+      </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8887,10 +9021,12 @@
       <c r="I257" t="n">
         <v>1.887</v>
       </c>
-      <c r="J257" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8924,12 +9060,10 @@
       <c r="I258" t="n">
         <v>1.904</v>
       </c>
-      <c r="J258" t="n">
-        <v>1.887</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L258" t="n">
@@ -8960,15 +9094,15 @@
         <v>-28544011.60311038</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>1.887</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L259" t="n">

--- a/BackTest/2020-01-14 BackTest AOA.xlsx
+++ b/BackTest/2020-01-14 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M259"/>
+  <dimension ref="A1:L259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>730003</v>
       </c>
       <c r="G2" t="n">
-        <v>1572814.427499999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2859662.76</v>
       </c>
       <c r="G3" t="n">
-        <v>4432477.187499999</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>3130252.88</v>
       </c>
       <c r="G4" t="n">
-        <v>4432477.187499999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1210937.88</v>
       </c>
       <c r="G5" t="n">
-        <v>3221539.307499999</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1320011</v>
       </c>
       <c r="G6" t="n">
-        <v>3221539.307499999</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2297512.88</v>
       </c>
       <c r="G7" t="n">
-        <v>3221539.307499999</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>787720.88</v>
       </c>
       <c r="G8" t="n">
-        <v>4009260.187499999</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1616370.88</v>
       </c>
       <c r="G9" t="n">
-        <v>4009260.187499999</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1028273</v>
       </c>
       <c r="G10" t="n">
-        <v>2980987.187499999</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>637897.88</v>
       </c>
       <c r="G11" t="n">
-        <v>3618885.067499999</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>3182984.88</v>
       </c>
       <c r="G12" t="n">
-        <v>3618885.067499999</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>3447029.88</v>
       </c>
       <c r="G13" t="n">
-        <v>171855.1874999991</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>3185157</v>
       </c>
       <c r="G14" t="n">
-        <v>171855.1874999991</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>968653.88</v>
       </c>
       <c r="G15" t="n">
-        <v>1140509.067499999</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3482342.75012987</v>
       </c>
       <c r="G16" t="n">
-        <v>-2341833.682629871</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>2432852.88</v>
       </c>
       <c r="G17" t="n">
-        <v>91019.19737012871</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>3133150.76</v>
       </c>
       <c r="G18" t="n">
-        <v>91019.19737012871</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2084397.88</v>
       </c>
       <c r="G19" t="n">
-        <v>-1993378.682629871</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>2194285.88</v>
       </c>
       <c r="G20" t="n">
-        <v>200907.1973701287</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>3291729.88</v>
       </c>
       <c r="G21" t="n">
-        <v>-3090822.682629871</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1463843.88</v>
       </c>
       <c r="G22" t="n">
-        <v>-3090822.682629871</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>103896.1038961039</v>
       </c>
       <c r="G23" t="n">
-        <v>-2986926.578733767</v>
-      </c>
-      <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>83351.42252057143</v>
       </c>
       <c r="G24" t="n">
-        <v>-2986926.578733767</v>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>2746223.9389</v>
       </c>
       <c r="G25" t="n">
-        <v>-240702.6398337674</v>
-      </c>
-      <c r="H25" t="n">
         <v>2</v>
       </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>3349767.88</v>
       </c>
       <c r="G26" t="n">
-        <v>-3590470.519833767</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1382346.025401763</v>
       </c>
       <c r="G27" t="n">
-        <v>-2208124.494432004</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>1714237.88</v>
       </c>
       <c r="G28" t="n">
-        <v>-3922362.374432004</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>3380528.88</v>
       </c>
       <c r="G29" t="n">
-        <v>-7302891.254432004</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>2064237.88</v>
       </c>
       <c r="G30" t="n">
-        <v>-7302891.254432004</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>65419.7995</v>
       </c>
       <c r="G31" t="n">
-        <v>-7302891.254432004</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>509401.4096</v>
       </c>
       <c r="G32" t="n">
-        <v>-7812292.664032004</v>
-      </c>
-      <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>523108.3982</v>
       </c>
       <c r="G33" t="n">
-        <v>-7812292.664032004</v>
-      </c>
-      <c r="H33" t="n">
         <v>2</v>
       </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>26702.0345</v>
       </c>
       <c r="G34" t="n">
-        <v>-7812292.664032004</v>
-      </c>
-      <c r="H34" t="n">
         <v>2</v>
       </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>84580.20050000001</v>
       </c>
       <c r="G35" t="n">
-        <v>-7812292.664032004</v>
-      </c>
-      <c r="H35" t="n">
         <v>2</v>
       </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1000</v>
       </c>
       <c r="G36" t="n">
-        <v>-7812292.664032004</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>270</v>
       </c>
       <c r="G37" t="n">
-        <v>-7812022.664032004</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>108255.9261</v>
       </c>
       <c r="G38" t="n">
-        <v>-7920278.590132004</v>
-      </c>
-      <c r="H38" t="n">
         <v>2</v>
       </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>219194.4391</v>
       </c>
       <c r="G39" t="n">
-        <v>-7920278.590132004</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>104255.0389783742</v>
       </c>
       <c r="G40" t="n">
-        <v>-7816023.551153629</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>533599.5621</v>
       </c>
       <c r="G41" t="n">
-        <v>-8349623.113253629</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>27670.2614</v>
       </c>
       <c r="G42" t="n">
-        <v>-8377293.374653629</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>51763.4511</v>
       </c>
       <c r="G43" t="n">
-        <v>-8377293.374653629</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>566063.6035</v>
       </c>
       <c r="G44" t="n">
-        <v>-8943356.978153629</v>
-      </c>
-      <c r="H44" t="n">
         <v>2</v>
       </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>124780.5423</v>
       </c>
       <c r="G45" t="n">
-        <v>-9068137.52045363</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>377686.0963</v>
       </c>
       <c r="G46" t="n">
-        <v>-9445823.61675363</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>80592.6842</v>
       </c>
       <c r="G47" t="n">
-        <v>-9445823.61675363</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>55796.3028</v>
       </c>
       <c r="G48" t="n">
-        <v>-9445823.61675363</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>262</v>
       </c>
       <c r="G49" t="n">
-        <v>-9445561.61675363</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>95013.02499999999</v>
       </c>
       <c r="G50" t="n">
-        <v>-9445561.61675363</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>1000</v>
       </c>
       <c r="G51" t="n">
-        <v>-9446561.61675363</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>5000</v>
       </c>
       <c r="G52" t="n">
-        <v>-9446561.61675363</v>
-      </c>
-      <c r="H52" t="n">
         <v>2</v>
       </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>149324.7333216259</v>
       </c>
       <c r="G53" t="n">
-        <v>-9297236.883432005</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>100000</v>
       </c>
       <c r="G54" t="n">
-        <v>-9197236.883432005</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>302399.1356783742</v>
       </c>
       <c r="G55" t="n">
-        <v>-9499636.019110378</v>
-      </c>
-      <c r="H55" t="n">
         <v>2</v>
       </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>46137.6434</v>
       </c>
       <c r="G56" t="n">
-        <v>-9545773.662510378</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>1005.3564</v>
       </c>
       <c r="G57" t="n">
-        <v>-9546779.018910378</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1005.4957</v>
       </c>
       <c r="G58" t="n">
-        <v>-9547784.514610378</v>
-      </c>
-      <c r="H58" t="n">
         <v>2</v>
       </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>291.7982</v>
       </c>
       <c r="G59" t="n">
-        <v>-9548076.312810378</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1393109</v>
       </c>
       <c r="G60" t="n">
-        <v>-10941185.31281038</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>2846699.76</v>
       </c>
       <c r="G61" t="n">
-        <v>-8094485.552810378</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>167512.6522</v>
       </c>
       <c r="G62" t="n">
-        <v>-8261998.205010379</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>236644.0909</v>
       </c>
       <c r="G63" t="n">
-        <v>-8498642.295910379</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>329325.2233</v>
       </c>
       <c r="G64" t="n">
-        <v>-8827967.51921038</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>300</v>
       </c>
       <c r="G65" t="n">
-        <v>-8827967.51921038</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>95425</v>
       </c>
       <c r="G66" t="n">
-        <v>-8732542.51921038</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>2367840.0668</v>
       </c>
       <c r="G67" t="n">
-        <v>-6364702.452410379</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>492279.2169</v>
       </c>
       <c r="G68" t="n">
-        <v>-5872423.235510379</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>1478717.88</v>
       </c>
       <c r="G69" t="n">
-        <v>-7351141.115510379</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>3914450.88</v>
       </c>
       <c r="G70" t="n">
-        <v>-3436690.235510379</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>3000417.88</v>
       </c>
       <c r="G71" t="n">
-        <v>-6437108.115510379</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>222715</v>
       </c>
       <c r="G72" t="n">
-        <v>-6214393.115510379</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>3339866.88</v>
       </c>
       <c r="G73" t="n">
-        <v>-9554259.995510379</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>2940886.88</v>
       </c>
       <c r="G74" t="n">
-        <v>-6613373.115510379</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>1863958.7134</v>
       </c>
       <c r="G75" t="n">
-        <v>-8477331.828910379</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>339.4091</v>
       </c>
       <c r="G76" t="n">
-        <v>-8477331.828910379</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>59834.6772</v>
       </c>
       <c r="G77" t="n">
-        <v>-8477331.828910379</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>2712.4834</v>
       </c>
       <c r="G78" t="n">
-        <v>-8474619.345510378</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>1043073.2502</v>
       </c>
       <c r="G79" t="n">
-        <v>-9517692.595710378</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>265</v>
       </c>
       <c r="G80" t="n">
-        <v>-9517957.595710378</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>64478.0578</v>
       </c>
       <c r="G81" t="n">
-        <v>-9582435.653510379</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>26692.1859</v>
       </c>
       <c r="G82" t="n">
-        <v>-9609127.83941038</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>203015.1284</v>
       </c>
       <c r="G83" t="n">
-        <v>-9406112.71101038</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>219580.2903</v>
       </c>
       <c r="G84" t="n">
-        <v>-9625693.00131038</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>38266.9435</v>
       </c>
       <c r="G85" t="n">
-        <v>-9625693.00131038</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>148148.8227</v>
       </c>
       <c r="G86" t="n">
-        <v>-9477544.178610381</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>46938.7022</v>
       </c>
       <c r="G87" t="n">
-        <v>-9524482.88081038</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>7162580.5994</v>
       </c>
       <c r="G88" t="n">
-        <v>-16687063.48021038</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>32408.3203</v>
       </c>
       <c r="G89" t="n">
-        <v>-16719471.80051038</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>26925.1481</v>
       </c>
       <c r="G90" t="n">
-        <v>-16692546.65241038</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,21 @@
         <v>873057.2502</v>
       </c>
       <c r="G91" t="n">
-        <v>-15819489.40221038</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1.857</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3149,19 @@
         <v>40340.1819</v>
       </c>
       <c r="G92" t="n">
-        <v>-15819489.40221038</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3183,19 @@
         <v>810.375</v>
       </c>
       <c r="G93" t="n">
-        <v>-15820299.77721038</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3217,19 @@
         <v>263798.3366</v>
       </c>
       <c r="G94" t="n">
-        <v>-15556501.44061038</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3251,19 @@
         <v>374640.8593</v>
       </c>
       <c r="G95" t="n">
-        <v>-15556501.44061038</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3285,19 @@
         <v>190146.3702</v>
       </c>
       <c r="G96" t="n">
-        <v>-15746647.81081038</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3319,19 @@
         <v>818732</v>
       </c>
       <c r="G97" t="n">
-        <v>-14927915.81081038</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3353,21 @@
         <v>18719.0254</v>
       </c>
       <c r="G98" t="n">
-        <v>-14909196.78541038</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1.872</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3389,21 @@
         <v>1329.8701</v>
       </c>
       <c r="G99" t="n">
-        <v>-14909196.78541038</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3425,21 @@
         <v>94083.4133</v>
       </c>
       <c r="G100" t="n">
-        <v>-14815113.37211038</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3461,21 @@
         <v>42337.2712</v>
       </c>
       <c r="G101" t="n">
-        <v>-14815113.37211038</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1.883</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3497,19 @@
         <v>78971.4684</v>
       </c>
       <c r="G102" t="n">
-        <v>-14894084.84051038</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3531,19 @@
         <v>56402.4465</v>
       </c>
       <c r="G103" t="n">
-        <v>-14950487.28701038</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3565,19 @@
         <v>400000</v>
       </c>
       <c r="G104" t="n">
-        <v>-14550487.28701038</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3599,19 @@
         <v>6108.8701</v>
       </c>
       <c r="G105" t="n">
-        <v>-14550487.28701038</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3633,19 @@
         <v>129177.2646</v>
       </c>
       <c r="G106" t="n">
-        <v>-14679664.55161038</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3667,19 @@
         <v>266</v>
       </c>
       <c r="G107" t="n">
-        <v>-14679398.55161038</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3701,19 @@
         <v>152000</v>
       </c>
       <c r="G108" t="n">
-        <v>-14831398.55161038</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3735,21 @@
         <v>266</v>
       </c>
       <c r="G109" t="n">
-        <v>-14831132.55161038</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1.871</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3771,19 @@
         <v>156266.8524</v>
       </c>
       <c r="G110" t="n">
-        <v>-14987399.40401038</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3805,21 @@
         <v>266</v>
       </c>
       <c r="G111" t="n">
-        <v>-14987133.40401038</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1.872</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3841,19 @@
         <v>56249.70778779841</v>
       </c>
       <c r="G112" t="n">
-        <v>-14987133.40401038</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3875,19 @@
         <v>12429.6103</v>
       </c>
       <c r="G113" t="n">
-        <v>-14987133.40401038</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3909,19 @@
         <v>159731.0988122016</v>
       </c>
       <c r="G114" t="n">
-        <v>-14987133.40401038</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3943,19 @@
         <v>70534.1841</v>
       </c>
       <c r="G115" t="n">
-        <v>-14916599.21991038</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3977,19 @@
         <v>3119073.88</v>
       </c>
       <c r="G116" t="n">
-        <v>-11797525.33991038</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4011,19 @@
         <v>3582513.0706</v>
       </c>
       <c r="G117" t="n">
-        <v>-15380038.41051038</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4045,19 @@
         <v>1553280.88</v>
       </c>
       <c r="G118" t="n">
-        <v>-15380038.41051038</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4079,19 @@
         <v>1070.7175</v>
       </c>
       <c r="G119" t="n">
-        <v>-15378967.69301038</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4113,19 @@
         <v>1000</v>
       </c>
       <c r="G120" t="n">
-        <v>-15379967.69301038</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4147,19 @@
         <v>634894</v>
       </c>
       <c r="G121" t="n">
-        <v>-16014861.69301038</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4181,19 @@
         <v>3379146.88</v>
       </c>
       <c r="G122" t="n">
-        <v>-16014861.69301038</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4215,19 @@
         <v>1875871.3004</v>
       </c>
       <c r="G123" t="n">
-        <v>-14138990.39261038</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4249,19 @@
         <v>1255872</v>
       </c>
       <c r="G124" t="n">
-        <v>-15394862.39261038</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4283,19 @@
         <v>21208.085</v>
       </c>
       <c r="G125" t="n">
-        <v>-15373654.30761038</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4317,19 @@
         <v>2533403.0774</v>
       </c>
       <c r="G126" t="n">
-        <v>-17907057.38501038</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4351,19 @@
         <v>921721</v>
       </c>
       <c r="G127" t="n">
-        <v>-16985336.38501038</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4385,19 @@
         <v>3052887.41</v>
       </c>
       <c r="G128" t="n">
-        <v>-20038223.79501038</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4419,19 @@
         <v>2892441.88</v>
       </c>
       <c r="G129" t="n">
-        <v>-17145781.91501038</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4453,19 @@
         <v>2861643.8</v>
       </c>
       <c r="G130" t="n">
-        <v>-17145781.91501038</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4487,19 @@
         <v>2815866.76</v>
       </c>
       <c r="G131" t="n">
-        <v>-14329915.15501038</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4521,19 @@
         <v>1523982</v>
       </c>
       <c r="G132" t="n">
-        <v>-15853897.15501038</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4555,19 @@
         <v>123000</v>
       </c>
       <c r="G133" t="n">
-        <v>-15730897.15501038</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4589,19 @@
         <v>2859476.88</v>
       </c>
       <c r="G134" t="n">
-        <v>-18590374.03501038</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4623,19 @@
         <v>2927002.76</v>
       </c>
       <c r="G135" t="n">
-        <v>-18590374.03501038</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4657,19 @@
         <v>2067273.88</v>
       </c>
       <c r="G136" t="n">
-        <v>-18590374.03501038</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4691,19 @@
         <v>1679438.88</v>
       </c>
       <c r="G137" t="n">
-        <v>-16910935.15501038</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4725,19 @@
         <v>4216035</v>
       </c>
       <c r="G138" t="n">
-        <v>-21126970.15501038</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4759,19 @@
         <v>1365739.88</v>
       </c>
       <c r="G139" t="n">
-        <v>-19761230.27501038</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4793,19 @@
         <v>21832.8574</v>
       </c>
       <c r="G140" t="n">
-        <v>-19783063.13241038</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4827,19 @@
         <v>275219.7233</v>
       </c>
       <c r="G141" t="n">
-        <v>-20058282.85571038</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4861,19 @@
         <v>2288073.88</v>
       </c>
       <c r="G142" t="n">
-        <v>-17770208.97571038</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4895,19 @@
         <v>2964282.88</v>
       </c>
       <c r="G143" t="n">
-        <v>-14805926.09571038</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4929,19 @@
         <v>2061212.88</v>
       </c>
       <c r="G144" t="n">
-        <v>-16867138.97571038</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4963,19 @@
         <v>2888</v>
       </c>
       <c r="G145" t="n">
-        <v>-16864250.97571038</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4997,19 @@
         <v>605218</v>
       </c>
       <c r="G146" t="n">
-        <v>-17469468.97571038</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5031,19 @@
         <v>2933391.88</v>
       </c>
       <c r="G147" t="n">
-        <v>-14536077.09571038</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5065,19 @@
         <v>3493278.88</v>
       </c>
       <c r="G148" t="n">
-        <v>-18029355.97571038</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5099,19 @@
         <v>666952.88</v>
       </c>
       <c r="G149" t="n">
-        <v>-18029355.97571038</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5133,19 @@
         <v>768113</v>
       </c>
       <c r="G150" t="n">
-        <v>-18029355.97571038</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5167,19 @@
         <v>3033659.88</v>
       </c>
       <c r="G151" t="n">
-        <v>-14995696.09571038</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5201,19 @@
         <v>3186719.88</v>
       </c>
       <c r="G152" t="n">
-        <v>-18182415.97571038</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5235,19 @@
         <v>4245.7468</v>
       </c>
       <c r="G153" t="n">
-        <v>-18178170.22891038</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5269,19 @@
         <v>222840</v>
       </c>
       <c r="G154" t="n">
-        <v>-18401010.22891038</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5303,19 @@
         <v>3368479.88</v>
       </c>
       <c r="G155" t="n">
-        <v>-21769490.10891038</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5337,19 @@
         <v>3079326.76</v>
       </c>
       <c r="G156" t="n">
-        <v>-18690163.34891038</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5371,19 @@
         <v>644997</v>
       </c>
       <c r="G157" t="n">
-        <v>-19335160.34891038</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5405,19 @@
         <v>95629.4308</v>
       </c>
       <c r="G158" t="n">
-        <v>-19239530.91811038</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5439,19 @@
         <v>150570.1552</v>
       </c>
       <c r="G159" t="n">
-        <v>-19239530.91811038</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5473,19 @@
         <v>1546777</v>
       </c>
       <c r="G160" t="n">
-        <v>-20786307.91811038</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5507,19 @@
         <v>3228706.88</v>
       </c>
       <c r="G161" t="n">
-        <v>-17557601.03811038</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5541,19 @@
         <v>2756442.76</v>
       </c>
       <c r="G162" t="n">
-        <v>-17557601.03811038</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5575,19 @@
         <v>499526</v>
       </c>
       <c r="G163" t="n">
-        <v>-18057127.03811038</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5609,19 @@
         <v>72127.00440000001</v>
       </c>
       <c r="G164" t="n">
-        <v>-17985000.03371038</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5643,19 @@
         <v>43726.09</v>
       </c>
       <c r="G165" t="n">
-        <v>-17985000.03371038</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5677,19 @@
         <v>3134240</v>
       </c>
       <c r="G166" t="n">
-        <v>-21119240.03371038</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5711,19 @@
         <v>3386033.88</v>
       </c>
       <c r="G167" t="n">
-        <v>-17733206.15371038</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5745,19 @@
         <v>1248840</v>
       </c>
       <c r="G168" t="n">
-        <v>-18982046.15371038</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5779,19 @@
         <v>25254.8274</v>
       </c>
       <c r="G169" t="n">
-        <v>-18956791.32631038</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5813,19 @@
         <v>50651.4219</v>
       </c>
       <c r="G170" t="n">
-        <v>-18906139.90441038</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5847,19 @@
         <v>35288.2826</v>
       </c>
       <c r="G171" t="n">
-        <v>-18941428.18701038</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5881,19 @@
         <v>399.6681</v>
       </c>
       <c r="G172" t="n">
-        <v>-18941428.18701038</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5915,19 @@
         <v>1898131.2932</v>
       </c>
       <c r="G173" t="n">
-        <v>-20839559.48021038</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5949,19 @@
         <v>3258082.88</v>
       </c>
       <c r="G174" t="n">
-        <v>-20839559.48021038</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5983,19 @@
         <v>2879031.4833</v>
       </c>
       <c r="G175" t="n">
-        <v>-23718590.96351038</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +6017,19 @@
         <v>241942.8099</v>
       </c>
       <c r="G176" t="n">
-        <v>-23960533.77341038</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +6051,19 @@
         <v>1539114.4772</v>
       </c>
       <c r="G177" t="n">
-        <v>-22421419.29621038</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +6085,19 @@
         <v>3059525.88</v>
       </c>
       <c r="G178" t="n">
-        <v>-19361893.41621038</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +6119,19 @@
         <v>2919445.76</v>
       </c>
       <c r="G179" t="n">
-        <v>-19361893.41621038</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +6153,19 @@
         <v>508402.9619</v>
       </c>
       <c r="G180" t="n">
-        <v>-19870296.37811038</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +6187,19 @@
         <v>1405523.88</v>
       </c>
       <c r="G181" t="n">
-        <v>-18464772.49811038</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6221,19 @@
         <v>819642</v>
       </c>
       <c r="G182" t="n">
-        <v>-18464772.49811038</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6255,19 @@
         <v>2890846.95</v>
       </c>
       <c r="G183" t="n">
-        <v>-18464772.49811038</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6289,19 @@
         <v>2367012.88</v>
       </c>
       <c r="G184" t="n">
-        <v>-18464772.49811038</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6323,19 @@
         <v>129721.4895</v>
       </c>
       <c r="G185" t="n">
-        <v>-18594493.98761038</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6357,19 @@
         <v>270000</v>
       </c>
       <c r="G186" t="n">
-        <v>-18324493.98761038</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6391,19 @@
         <v>687.7996000000001</v>
       </c>
       <c r="G187" t="n">
-        <v>-18323806.18801038</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6425,19 @@
         <v>1398682.6121</v>
       </c>
       <c r="G188" t="n">
-        <v>-18323806.18801038</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6459,19 @@
         <v>3748651.0649</v>
       </c>
       <c r="G189" t="n">
-        <v>-22072457.25291038</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6493,19 @@
         <v>160952.217</v>
       </c>
       <c r="G190" t="n">
-        <v>-21911505.03591038</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6527,19 @@
         <v>5399.2462</v>
       </c>
       <c r="G191" t="n">
-        <v>-21911505.03591038</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6561,19 @@
         <v>180292</v>
       </c>
       <c r="G192" t="n">
-        <v>-21911505.03591038</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6595,19 @@
         <v>1936.0278</v>
       </c>
       <c r="G193" t="n">
-        <v>-21909569.00811038</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6629,19 @@
         <v>77307.7968</v>
       </c>
       <c r="G194" t="n">
-        <v>-21832261.21131038</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6663,19 @@
         <v>3501106.88</v>
       </c>
       <c r="G195" t="n">
-        <v>-25333368.09131038</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6697,19 @@
         <v>2857105.76</v>
       </c>
       <c r="G196" t="n">
-        <v>-22476262.33131038</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6731,19 @@
         <v>683529</v>
       </c>
       <c r="G197" t="n">
-        <v>-23159791.33131038</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6765,19 @@
         <v>265</v>
       </c>
       <c r="G198" t="n">
-        <v>-23159526.33131038</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6799,19 @@
         <v>799384</v>
       </c>
       <c r="G199" t="n">
-        <v>-23958910.33131038</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6833,19 @@
         <v>3718784.88</v>
       </c>
       <c r="G200" t="n">
-        <v>-23958910.33131038</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6867,19 @@
         <v>2893477.88</v>
       </c>
       <c r="G201" t="n">
-        <v>-23958910.33131038</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6901,19 @@
         <v>253640</v>
       </c>
       <c r="G202" t="n">
-        <v>-23705270.33131038</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6935,19 @@
         <v>3584749.88</v>
       </c>
       <c r="G203" t="n">
-        <v>-27290020.21131038</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6969,19 @@
         <v>2144260.9112</v>
       </c>
       <c r="G204" t="n">
-        <v>-25145759.30011038</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +7003,19 @@
         <v>105888.3743</v>
       </c>
       <c r="G205" t="n">
-        <v>-25145759.30011038</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +7037,19 @@
         <v>112222.6349</v>
       </c>
       <c r="G206" t="n">
-        <v>-25257981.93501038</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +7071,19 @@
         <v>151090.2176</v>
       </c>
       <c r="G207" t="n">
-        <v>-25257981.93501038</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +7105,19 @@
         <v>75996.2153</v>
       </c>
       <c r="G208" t="n">
-        <v>-25333978.15031039</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +7139,19 @@
         <v>1800</v>
       </c>
       <c r="G209" t="n">
-        <v>-25332178.15031039</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +7173,19 @@
         <v>1500</v>
       </c>
       <c r="G210" t="n">
-        <v>-25332178.15031039</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +7207,19 @@
         <v>4776.3861</v>
       </c>
       <c r="G211" t="n">
-        <v>-25332178.15031039</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +7241,19 @@
         <v>839.7912</v>
       </c>
       <c r="G212" t="n">
-        <v>-25332178.15031039</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +7275,19 @@
         <v>739.6761</v>
       </c>
       <c r="G213" t="n">
-        <v>-25332178.15031039</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +7309,19 @@
         <v>390.3436</v>
       </c>
       <c r="G214" t="n">
-        <v>-25332178.15031039</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +7343,19 @@
         <v>132641.2381</v>
       </c>
       <c r="G215" t="n">
-        <v>-25199536.91221039</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +7377,19 @@
         <v>1835.9575</v>
       </c>
       <c r="G216" t="n">
-        <v>-25201372.86971039</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +7411,19 @@
         <v>110168.3699</v>
       </c>
       <c r="G217" t="n">
-        <v>-25311541.23961039</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +7445,19 @@
         <v>25677.8496</v>
       </c>
       <c r="G218" t="n">
-        <v>-25337219.08921038</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +7479,19 @@
         <v>92031.7325</v>
       </c>
       <c r="G219" t="n">
-        <v>-25429250.82171039</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7513,19 @@
         <v>3164.0425</v>
       </c>
       <c r="G220" t="n">
-        <v>-25426086.77921038</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7547,19 @@
         <v>265</v>
       </c>
       <c r="G221" t="n">
-        <v>-25425821.77921038</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7581,19 @@
         <v>1301.3106</v>
       </c>
       <c r="G222" t="n">
-        <v>-25427123.08981039</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7615,19 @@
         <v>108832.5751</v>
       </c>
       <c r="G223" t="n">
-        <v>-25318290.51471039</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7649,19 @@
         <v>5000</v>
       </c>
       <c r="G224" t="n">
-        <v>-25323290.51471039</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7683,19 @@
         <v>265</v>
       </c>
       <c r="G225" t="n">
-        <v>-25323025.51471039</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7717,19 @@
         <v>48995.1898</v>
       </c>
       <c r="G226" t="n">
-        <v>-25372020.70451039</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7751,19 @@
         <v>265</v>
       </c>
       <c r="G227" t="n">
-        <v>-25371755.70451039</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7785,19 @@
         <v>408777.4785</v>
       </c>
       <c r="G228" t="n">
-        <v>-25371755.70451039</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7819,19 @@
         <v>47716.3901</v>
       </c>
       <c r="G229" t="n">
-        <v>-25324039.31441039</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,24 +7853,19 @@
         <v>187662.3727</v>
       </c>
       <c r="G230" t="n">
-        <v>-25324039.31441039</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8011,22 +7887,19 @@
         <v>443215.1881</v>
       </c>
       <c r="G231" t="n">
-        <v>-24880824.12631039</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8048,22 +7921,19 @@
         <v>2586.0153</v>
       </c>
       <c r="G232" t="n">
-        <v>-24880824.12631039</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8085,22 +7955,19 @@
         <v>189490.7605</v>
       </c>
       <c r="G233" t="n">
-        <v>-24880824.12631039</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8122,24 +7989,19 @@
         <v>21874.2646</v>
       </c>
       <c r="G234" t="n">
-        <v>-24858949.86171039</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8161,22 +8023,19 @@
         <v>11965.5831</v>
       </c>
       <c r="G235" t="n">
-        <v>-24846984.27861039</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8198,22 +8057,19 @@
         <v>30671.2883</v>
       </c>
       <c r="G236" t="n">
-        <v>-24877655.56691039</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8235,22 +8091,19 @@
         <v>1687.5138</v>
       </c>
       <c r="G237" t="n">
-        <v>-24877655.56691039</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8272,24 +8125,19 @@
         <v>124316.9437</v>
       </c>
       <c r="G238" t="n">
-        <v>-24753338.62321039</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8311,24 +8159,19 @@
         <v>2984.7018</v>
       </c>
       <c r="G239" t="n">
-        <v>-24756323.32501039</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>1.911</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8350,24 +8193,19 @@
         <v>130499.3819</v>
       </c>
       <c r="G240" t="n">
-        <v>-24886822.70691039</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8389,24 +8227,19 @@
         <v>2127.0079</v>
       </c>
       <c r="G241" t="n">
-        <v>-24886822.70691039</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8428,24 +8261,19 @@
         <v>53443.4511</v>
       </c>
       <c r="G242" t="n">
-        <v>-24940266.15801039</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8467,24 +8295,19 @@
         <v>5000</v>
       </c>
       <c r="G243" t="n">
-        <v>-24940266.15801039</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8506,24 +8329,19 @@
         <v>270</v>
       </c>
       <c r="G244" t="n">
-        <v>-24939996.15801039</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8545,24 +8363,19 @@
         <v>90678.788</v>
       </c>
       <c r="G245" t="n">
-        <v>-25030674.94601039</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8584,24 +8397,19 @@
         <v>13397.6183</v>
       </c>
       <c r="G246" t="n">
-        <v>-25044072.56431039</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8623,24 +8431,19 @@
         <v>6939.479</v>
       </c>
       <c r="G247" t="n">
-        <v>-25037133.08531039</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8662,24 +8465,19 @@
         <v>3151.260504201681</v>
       </c>
       <c r="G248" t="n">
-        <v>-25037133.08531039</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8701,24 +8499,19 @@
         <v>330758.7015</v>
       </c>
       <c r="G249" t="n">
-        <v>-25367891.78681039</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8740,24 +8533,19 @@
         <v>1273445.0878</v>
       </c>
       <c r="G250" t="n">
-        <v>-24094446.69901039</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8779,24 +8567,19 @@
         <v>86000</v>
       </c>
       <c r="G251" t="n">
-        <v>-24180446.69901039</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8818,24 +8601,19 @@
         <v>856.7234999999999</v>
       </c>
       <c r="G252" t="n">
-        <v>-24180446.69901039</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8857,24 +8635,19 @@
         <v>690.9759</v>
       </c>
       <c r="G253" t="n">
-        <v>-24179755.72311039</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8896,24 +8669,19 @@
         <v>1283995.88</v>
       </c>
       <c r="G254" t="n">
-        <v>-25463751.60311038</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8935,24 +8703,19 @@
         <v>3402453.88</v>
       </c>
       <c r="G255" t="n">
-        <v>-28866205.48311038</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8974,24 +8737,19 @@
         <v>2317868.88</v>
       </c>
       <c r="G256" t="n">
-        <v>-28866205.48311038</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9013,24 +8771,19 @@
         <v>3256616.88</v>
       </c>
       <c r="G257" t="n">
-        <v>-25609588.60311038</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9052,24 +8805,19 @@
         <v>3697521.88</v>
       </c>
       <c r="G258" t="n">
-        <v>-29307110.48311038</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9091,24 +8839,19 @@
         <v>763098.88</v>
       </c>
       <c r="G259" t="n">
-        <v>-28544011.60311038</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
